--- a/Simulation_Output_valen_opt_acumulativo.xlsx
+++ b/Simulation_Output_valen_opt_acumulativo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23035D25-3928-4A4C-A957-29D6E41E3640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A92530-7269-4466-8104-4439C096A46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,9 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="86">
-  <si>
-    <t>Fecha</t>
-  </si>
   <si>
     <t>Direction</t>
   </si>
@@ -279,13 +276,16 @@
   <si>
     <t>toggle_false</t>
   </si>
+  <si>
+    <t>date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -341,7 +341,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD554"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,94 +683,94 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
@@ -841,10 +841,10 @@
         <v>1</v>
       </c>
       <c r="Y2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z2" t="s">
         <v>29</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>30</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>1</v>
       </c>
       <c r="Y3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z3" t="s">
         <v>29</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>30</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -1013,10 +1013,10 @@
         <v>1</v>
       </c>
       <c r="Y4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" t="s">
         <v>31</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>32</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA5">
         <v>0.5016204905360544</v>
@@ -1185,10 +1185,10 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z6" t="s">
         <v>31</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>32</v>
       </c>
       <c r="AA6">
         <v>1</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z7" t="s">
         <v>34</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>35</v>
       </c>
       <c r="AA7">
         <v>1</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1437,10 +1437,10 @@
         <v>1</v>
       </c>
       <c r="Y9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z9" t="s">
         <v>29</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>30</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>1</v>
       </c>
       <c r="Y10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z10" t="s">
         <v>29</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>30</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z11" t="s">
         <v>29</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>30</v>
       </c>
       <c r="AA11">
         <v>1</v>
@@ -1695,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z12" t="s">
         <v>29</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>30</v>
       </c>
       <c r="AA12">
         <v>1</v>
@@ -1781,10 +1781,10 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z13" t="s">
         <v>29</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>30</v>
       </c>
       <c r="AA13">
         <v>1</v>
@@ -1867,10 +1867,10 @@
         <v>1</v>
       </c>
       <c r="Y14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z14" t="s">
         <v>34</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>35</v>
       </c>
       <c r="AA14">
         <v>0</v>
@@ -1953,10 +1953,10 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z15" t="s">
         <v>34</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>35</v>
       </c>
       <c r="AA15">
         <v>1</v>
@@ -2039,10 +2039,10 @@
         <v>0</v>
       </c>
       <c r="Y16" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z16" t="s">
         <v>31</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>32</v>
       </c>
       <c r="AA16">
         <v>1</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="Y17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z17" t="s">
         <v>31</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>32</v>
       </c>
       <c r="AA17">
         <v>1</v>
@@ -2211,10 +2211,10 @@
         <v>1</v>
       </c>
       <c r="Y18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA18">
         <v>0.46972792674491171</v>
@@ -2297,10 +2297,10 @@
         <v>1</v>
       </c>
       <c r="Y19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z19" t="s">
         <v>29</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>30</v>
       </c>
       <c r="AA19">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>1</v>
       </c>
       <c r="Y20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z20" t="s">
         <v>29</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>30</v>
       </c>
       <c r="AA20">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>0</v>
       </c>
       <c r="Y21" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z21" t="s">
         <v>34</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>35</v>
       </c>
       <c r="AA21">
         <v>1</v>
@@ -2555,10 +2555,10 @@
         <v>1</v>
       </c>
       <c r="Y22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z22" t="s">
         <v>34</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>35</v>
       </c>
       <c r="AA22">
         <v>0</v>
@@ -2641,10 +2641,10 @@
         <v>1</v>
       </c>
       <c r="Y23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA23">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="Y24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z24" t="s">
         <v>34</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>35</v>
       </c>
       <c r="AA24">
         <v>1</v>
@@ -2813,10 +2813,10 @@
         <v>0</v>
       </c>
       <c r="Y25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA25">
         <v>1</v>
@@ -2899,10 +2899,10 @@
         <v>0</v>
       </c>
       <c r="Y26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA26">
         <v>1</v>
@@ -2985,10 +2985,10 @@
         <v>0</v>
       </c>
       <c r="Y27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA27">
         <v>1</v>
@@ -3071,10 +3071,10 @@
         <v>0</v>
       </c>
       <c r="Y28" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z28" t="s">
         <v>34</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>35</v>
       </c>
       <c r="AA28">
         <v>1</v>
@@ -3157,10 +3157,10 @@
         <v>0</v>
       </c>
       <c r="Y29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA29">
         <v>0.63233720262197601</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="Y30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA30">
         <v>1</v>
@@ -3329,10 +3329,10 @@
         <v>1</v>
       </c>
       <c r="Y31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA31">
         <v>0.35090357692716823</v>
@@ -3415,10 +3415,10 @@
         <v>1</v>
       </c>
       <c r="Y32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA32">
         <v>0.3942396449221548</v>
@@ -3501,10 +3501,10 @@
         <v>1</v>
       </c>
       <c r="Y33" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z33" t="s">
         <v>34</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>35</v>
       </c>
       <c r="AA33">
         <v>0</v>
@@ -3587,10 +3587,10 @@
         <v>0</v>
       </c>
       <c r="Y34" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z34" t="s">
         <v>34</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>35</v>
       </c>
       <c r="AA34">
         <v>1</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="Y35" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z35" t="s">
         <v>34</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>35</v>
       </c>
       <c r="AA35">
         <v>1</v>
@@ -3759,10 +3759,10 @@
         <v>0</v>
       </c>
       <c r="Y36" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z36" t="s">
         <v>34</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>35</v>
       </c>
       <c r="AA36">
         <v>1</v>
@@ -3845,10 +3845,10 @@
         <v>0</v>
       </c>
       <c r="Y37" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z37" t="s">
         <v>34</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>35</v>
       </c>
       <c r="AA37">
         <v>1</v>
@@ -3931,10 +3931,10 @@
         <v>0</v>
       </c>
       <c r="Y38" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z38" t="s">
         <v>34</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>35</v>
       </c>
       <c r="AA38">
         <v>1</v>
@@ -4017,10 +4017,10 @@
         <v>0</v>
       </c>
       <c r="Y39" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z39" t="s">
         <v>34</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>35</v>
       </c>
       <c r="AA39">
         <v>1</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="Y40" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z40" t="s">
         <v>34</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>35</v>
       </c>
       <c r="AA40">
         <v>1</v>
@@ -4189,10 +4189,10 @@
         <v>0</v>
       </c>
       <c r="Y41" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z41" t="s">
         <v>34</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>35</v>
       </c>
       <c r="AA41">
         <v>1</v>
@@ -4275,10 +4275,10 @@
         <v>0</v>
       </c>
       <c r="Y42" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z42" t="s">
         <v>34</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>35</v>
       </c>
       <c r="AA42">
         <v>1</v>
@@ -4361,10 +4361,10 @@
         <v>0</v>
       </c>
       <c r="Y43" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z43" t="s">
         <v>34</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>35</v>
       </c>
       <c r="AA43">
         <v>1</v>
@@ -4447,10 +4447,10 @@
         <v>0</v>
       </c>
       <c r="Y44" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z44" t="s">
         <v>29</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>30</v>
       </c>
       <c r="AA44">
         <v>1</v>
@@ -4533,10 +4533,10 @@
         <v>1</v>
       </c>
       <c r="Y45" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z45" t="s">
         <v>29</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>30</v>
       </c>
       <c r="AA45">
         <v>0</v>
@@ -4619,10 +4619,10 @@
         <v>0</v>
       </c>
       <c r="Y46" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z46" t="s">
         <v>34</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>35</v>
       </c>
       <c r="AA46">
         <v>1</v>
@@ -4705,10 +4705,10 @@
         <v>0</v>
       </c>
       <c r="Y47" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z47" t="s">
         <v>34</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>35</v>
       </c>
       <c r="AA47">
         <v>1</v>
@@ -4791,10 +4791,10 @@
         <v>1</v>
       </c>
       <c r="Y48" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z48" t="s">
         <v>31</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>32</v>
       </c>
       <c r="AA48">
         <v>0</v>
@@ -4877,10 +4877,10 @@
         <v>1</v>
       </c>
       <c r="Y49" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z49" t="s">
         <v>29</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>30</v>
       </c>
       <c r="AA49">
         <v>0</v>
@@ -4963,10 +4963,10 @@
         <v>1</v>
       </c>
       <c r="Y50" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z50" t="s">
         <v>29</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>30</v>
       </c>
       <c r="AA50">
         <v>0</v>
@@ -5049,10 +5049,10 @@
         <v>1</v>
       </c>
       <c r="Y51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA51">
         <v>0</v>
@@ -5135,10 +5135,10 @@
         <v>1</v>
       </c>
       <c r="Y52" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z52" t="s">
         <v>29</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>30</v>
       </c>
       <c r="AA52">
         <v>0</v>
@@ -5221,10 +5221,10 @@
         <v>1</v>
       </c>
       <c r="Y53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA53">
         <v>0</v>
@@ -5307,10 +5307,10 @@
         <v>1</v>
       </c>
       <c r="Y54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA54">
         <v>0</v>
@@ -5393,10 +5393,10 @@
         <v>0</v>
       </c>
       <c r="Y55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA55">
         <v>0.54094673893473089</v>
@@ -5479,10 +5479,10 @@
         <v>0</v>
       </c>
       <c r="Y56" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z56" t="s">
         <v>29</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>30</v>
       </c>
       <c r="AA56">
         <v>1</v>
@@ -5565,10 +5565,10 @@
         <v>1</v>
       </c>
       <c r="Y57" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z57" t="s">
         <v>29</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>30</v>
       </c>
       <c r="AA57">
         <v>0</v>
@@ -5651,10 +5651,10 @@
         <v>0</v>
       </c>
       <c r="Y58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA58">
         <v>1</v>
@@ -5737,10 +5737,10 @@
         <v>0</v>
       </c>
       <c r="Y59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA59">
         <v>1</v>
@@ -5823,10 +5823,10 @@
         <v>1</v>
       </c>
       <c r="Y60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA60">
         <v>0</v>
@@ -5909,10 +5909,10 @@
         <v>1</v>
       </c>
       <c r="Y61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA61">
         <v>0</v>
@@ -5995,10 +5995,10 @@
         <v>1</v>
       </c>
       <c r="Y62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA62">
         <v>0</v>
@@ -6087,10 +6087,10 @@
         <v>0</v>
       </c>
       <c r="Y63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA63">
         <v>1</v>
@@ -6179,10 +6179,10 @@
         <v>1</v>
       </c>
       <c r="Y64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA64">
         <v>0</v>
@@ -6271,10 +6271,10 @@
         <v>0</v>
       </c>
       <c r="Y65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA65">
         <v>0.52263329456793217</v>
@@ -6363,10 +6363,10 @@
         <v>0</v>
       </c>
       <c r="Y66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA66">
         <v>1</v>
@@ -6455,10 +6455,10 @@
         <v>0</v>
       </c>
       <c r="Y67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA67">
         <v>1</v>
@@ -6547,10 +6547,10 @@
         <v>1</v>
       </c>
       <c r="Y68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA68">
         <v>0.47918588666493922</v>
@@ -6639,10 +6639,10 @@
         <v>1</v>
       </c>
       <c r="Y69" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z69" t="s">
         <v>29</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>30</v>
       </c>
       <c r="AA69">
         <v>0</v>
@@ -6731,10 +6731,10 @@
         <v>1</v>
       </c>
       <c r="Y70" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z70" t="s">
         <v>29</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>30</v>
       </c>
       <c r="AA70">
         <v>0</v>
@@ -6823,10 +6823,10 @@
         <v>1</v>
       </c>
       <c r="Y71" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z71" t="s">
         <v>29</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>30</v>
       </c>
       <c r="AA71">
         <v>0</v>
@@ -6915,10 +6915,10 @@
         <v>0</v>
       </c>
       <c r="Y72" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z72" t="s">
         <v>29</v>
-      </c>
-      <c r="Z72" t="s">
-        <v>30</v>
       </c>
       <c r="AA72">
         <v>1</v>
@@ -7007,10 +7007,10 @@
         <v>1</v>
       </c>
       <c r="Y73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z73" t="s">
         <v>29</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>30</v>
       </c>
       <c r="AA73">
         <v>0</v>
@@ -7099,10 +7099,10 @@
         <v>0</v>
       </c>
       <c r="Y74" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z74" t="s">
         <v>29</v>
-      </c>
-      <c r="Z74" t="s">
-        <v>30</v>
       </c>
       <c r="AA74">
         <v>1</v>
@@ -7191,10 +7191,10 @@
         <v>0</v>
       </c>
       <c r="Y75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA75">
         <v>0.53057280938717022</v>
@@ -7283,10 +7283,10 @@
         <v>1</v>
       </c>
       <c r="Y76" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z76" t="s">
         <v>29</v>
-      </c>
-      <c r="Z76" t="s">
-        <v>30</v>
       </c>
       <c r="AA76">
         <v>0</v>
@@ -7375,10 +7375,10 @@
         <v>1</v>
       </c>
       <c r="Y77" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z77" t="s">
         <v>29</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>30</v>
       </c>
       <c r="AA77">
         <v>0</v>
@@ -7467,10 +7467,10 @@
         <v>1</v>
       </c>
       <c r="Y78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA78">
         <v>0.35807894298368059</v>
@@ -7559,10 +7559,10 @@
         <v>0</v>
       </c>
       <c r="Y79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA79">
         <v>0.54500952161792793</v>
@@ -7651,10 +7651,10 @@
         <v>1</v>
       </c>
       <c r="Y80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA80">
         <v>0</v>
@@ -7743,10 +7743,10 @@
         <v>1</v>
       </c>
       <c r="Y81" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z81" t="s">
         <v>29</v>
-      </c>
-      <c r="Z81" t="s">
-        <v>30</v>
       </c>
       <c r="AA81">
         <v>0</v>
@@ -7835,10 +7835,10 @@
         <v>1</v>
       </c>
       <c r="Y82" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z82" t="s">
         <v>29</v>
-      </c>
-      <c r="Z82" t="s">
-        <v>30</v>
       </c>
       <c r="AA82">
         <v>0</v>
@@ -7927,10 +7927,10 @@
         <v>1</v>
       </c>
       <c r="Y83" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z83" t="s">
         <v>29</v>
-      </c>
-      <c r="Z83" t="s">
-        <v>30</v>
       </c>
       <c r="AA83">
         <v>0</v>
@@ -8019,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="Y84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA84">
         <v>0</v>
@@ -8105,7 +8105,7 @@
         <v>0</v>
       </c>
       <c r="Y85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA85">
         <v>0</v>
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="Y86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA86">
         <v>0</v>
@@ -8277,7 +8277,7 @@
         <v>0</v>
       </c>
       <c r="Y87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA87">
         <v>0</v>
@@ -8363,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="Y88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA88">
         <v>0</v>
@@ -8449,10 +8449,10 @@
         <v>1</v>
       </c>
       <c r="Y89" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z89" t="s">
         <v>34</v>
-      </c>
-      <c r="Z89" t="s">
-        <v>35</v>
       </c>
       <c r="AA89">
         <v>0</v>
@@ -8541,10 +8541,10 @@
         <v>1</v>
       </c>
       <c r="Y90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA90">
         <v>0</v>
@@ -8633,10 +8633,10 @@
         <v>0</v>
       </c>
       <c r="Y91" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z91" t="s">
         <v>31</v>
-      </c>
-      <c r="Z91" t="s">
-        <v>32</v>
       </c>
       <c r="AA91">
         <v>0.5107936844938723</v>
@@ -8725,10 +8725,10 @@
         <v>1</v>
       </c>
       <c r="Y92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA92">
         <v>0</v>
@@ -8817,10 +8817,10 @@
         <v>0</v>
       </c>
       <c r="Y93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA93">
         <v>0.50437273965706064</v>
@@ -8909,10 +8909,10 @@
         <v>0</v>
       </c>
       <c r="Y94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA94">
         <v>1</v>
@@ -9001,10 +9001,10 @@
         <v>1</v>
       </c>
       <c r="Y95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z95" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA95">
         <v>0.47312154100615911</v>
@@ -9093,10 +9093,10 @@
         <v>0</v>
       </c>
       <c r="Y96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA96">
         <v>0.65436384715285234</v>
@@ -9185,10 +9185,10 @@
         <v>0</v>
       </c>
       <c r="Y97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z97" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA97">
         <v>0.54571881126686306</v>
@@ -9277,10 +9277,10 @@
         <v>1</v>
       </c>
       <c r="Y98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z98" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA98">
         <v>0.41121769367194599</v>
@@ -9369,10 +9369,10 @@
         <v>1</v>
       </c>
       <c r="Y99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z99" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA99">
         <v>0</v>
@@ -9461,10 +9461,10 @@
         <v>1</v>
       </c>
       <c r="Y100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z100" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA100">
         <v>0.46896927730615928</v>
@@ -9553,10 +9553,10 @@
         <v>1</v>
       </c>
       <c r="Y101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z101" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA101">
         <v>0.4550036418967397</v>
@@ -9645,10 +9645,10 @@
         <v>1</v>
       </c>
       <c r="Y102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z102" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA102">
         <v>0.46115034288597312</v>
@@ -9737,10 +9737,10 @@
         <v>1</v>
       </c>
       <c r="Y103" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z103" t="s">
         <v>34</v>
-      </c>
-      <c r="Z103" t="s">
-        <v>35</v>
       </c>
       <c r="AA103">
         <v>0</v>
@@ -9829,10 +9829,10 @@
         <v>1</v>
       </c>
       <c r="Y104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z104" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA104">
         <v>0.4947703343433964</v>
@@ -9921,10 +9921,10 @@
         <v>0</v>
       </c>
       <c r="Y105" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z105" t="s">
         <v>34</v>
-      </c>
-      <c r="Z105" t="s">
-        <v>35</v>
       </c>
       <c r="AA105">
         <v>1</v>
@@ -10013,10 +10013,10 @@
         <v>1</v>
       </c>
       <c r="Y106" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z106" t="s">
         <v>34</v>
-      </c>
-      <c r="Z106" t="s">
-        <v>35</v>
       </c>
       <c r="AA106">
         <v>0</v>
@@ -10105,10 +10105,10 @@
         <v>0</v>
       </c>
       <c r="Y107" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z107" t="s">
         <v>34</v>
-      </c>
-      <c r="Z107" t="s">
-        <v>35</v>
       </c>
       <c r="AA107">
         <v>1</v>
@@ -10197,10 +10197,10 @@
         <v>0</v>
       </c>
       <c r="Y108" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z108" t="s">
         <v>34</v>
-      </c>
-      <c r="Z108" t="s">
-        <v>35</v>
       </c>
       <c r="AA108">
         <v>1</v>
@@ -10289,10 +10289,10 @@
         <v>0</v>
       </c>
       <c r="Y109" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z109" t="s">
         <v>34</v>
-      </c>
-      <c r="Z109" t="s">
-        <v>35</v>
       </c>
       <c r="AA109">
         <v>1</v>
@@ -10381,7 +10381,7 @@
         <v>0</v>
       </c>
       <c r="Y110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA110">
         <v>0</v>
@@ -10467,10 +10467,10 @@
         <v>1</v>
       </c>
       <c r="Y111" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z111" t="s">
         <v>34</v>
-      </c>
-      <c r="Z111" t="s">
-        <v>35</v>
       </c>
       <c r="AA111">
         <v>0</v>
@@ -10559,10 +10559,10 @@
         <v>0</v>
       </c>
       <c r="Y112" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z112" t="s">
         <v>34</v>
-      </c>
-      <c r="Z112" t="s">
-        <v>35</v>
       </c>
       <c r="AA112">
         <v>1</v>
@@ -10651,10 +10651,10 @@
         <v>0</v>
       </c>
       <c r="Y113" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z113" t="s">
         <v>34</v>
-      </c>
-      <c r="Z113" t="s">
-        <v>35</v>
       </c>
       <c r="AA113">
         <v>1</v>
@@ -10743,10 +10743,10 @@
         <v>1</v>
       </c>
       <c r="Y114" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z114" t="s">
         <v>34</v>
-      </c>
-      <c r="Z114" t="s">
-        <v>35</v>
       </c>
       <c r="AA114">
         <v>0</v>
@@ -10835,10 +10835,10 @@
         <v>1</v>
       </c>
       <c r="Y115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z115" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA115">
         <v>0</v>
@@ -10927,10 +10927,10 @@
         <v>1</v>
       </c>
       <c r="Y116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z116" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA116">
         <v>0.33532822736244178</v>
@@ -11019,10 +11019,10 @@
         <v>1</v>
       </c>
       <c r="Y117" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z117" t="s">
         <v>34</v>
-      </c>
-      <c r="Z117" t="s">
-        <v>35</v>
       </c>
       <c r="AA117">
         <v>0</v>
@@ -11111,10 +11111,10 @@
         <v>1</v>
       </c>
       <c r="Y118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA118">
         <v>0</v>
@@ -11203,10 +11203,10 @@
         <v>1</v>
       </c>
       <c r="Y119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z119" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA119">
         <v>0.37643955870904378</v>
@@ -11295,10 +11295,10 @@
         <v>1</v>
       </c>
       <c r="Y120" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z120" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA120">
         <v>0</v>
@@ -11387,10 +11387,10 @@
         <v>1</v>
       </c>
       <c r="Y121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z121" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA121">
         <v>0.453722432155857</v>
@@ -11479,10 +11479,10 @@
         <v>1</v>
       </c>
       <c r="Y122" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z122" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA122">
         <v>0</v>
@@ -11571,10 +11571,10 @@
         <v>0</v>
       </c>
       <c r="Y123" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z123" t="s">
         <v>34</v>
-      </c>
-      <c r="Z123" t="s">
-        <v>35</v>
       </c>
       <c r="AA123">
         <v>1</v>
@@ -11663,10 +11663,10 @@
         <v>0</v>
       </c>
       <c r="Y124" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z124" t="s">
         <v>34</v>
-      </c>
-      <c r="Z124" t="s">
-        <v>35</v>
       </c>
       <c r="AA124">
         <v>1</v>
@@ -11755,10 +11755,10 @@
         <v>1</v>
       </c>
       <c r="Y125" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z125" t="s">
         <v>34</v>
-      </c>
-      <c r="Z125" t="s">
-        <v>35</v>
       </c>
       <c r="AA125">
         <v>0</v>
@@ -11847,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="Y126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA126">
         <v>0</v>
@@ -11933,7 +11933,7 @@
         <v>0</v>
       </c>
       <c r="Y127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA127">
         <v>0</v>
@@ -12019,7 +12019,7 @@
         <v>0</v>
       </c>
       <c r="Y128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA128">
         <v>0</v>
@@ -12105,7 +12105,7 @@
         <v>0</v>
       </c>
       <c r="Y129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA129">
         <v>0</v>
@@ -12191,7 +12191,7 @@
         <v>0</v>
       </c>
       <c r="Y130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA130">
         <v>0</v>
@@ -12277,10 +12277,10 @@
         <v>0</v>
       </c>
       <c r="Y131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA131">
         <v>0.63177968906931448</v>
@@ -12369,10 +12369,10 @@
         <v>0</v>
       </c>
       <c r="Y132" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z132" t="s">
         <v>34</v>
-      </c>
-      <c r="Z132" t="s">
-        <v>35</v>
       </c>
       <c r="AA132">
         <v>1</v>
@@ -12461,10 +12461,10 @@
         <v>1</v>
       </c>
       <c r="Y133" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z133" t="s">
         <v>34</v>
-      </c>
-      <c r="Z133" t="s">
-        <v>35</v>
       </c>
       <c r="AA133">
         <v>0</v>
@@ -12553,10 +12553,10 @@
         <v>0</v>
       </c>
       <c r="Y134" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z134" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA134">
         <v>1</v>
@@ -12645,10 +12645,10 @@
         <v>1</v>
       </c>
       <c r="Y135" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z135" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA135">
         <v>0.41954487273171071</v>
@@ -12737,10 +12737,10 @@
         <v>1</v>
       </c>
       <c r="Y136" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z136" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AA136">
         <v>0.22732041039469411</v>
@@ -12829,10 +12829,10 @@
         <v>0</v>
       </c>
       <c r="Y137" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z137" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AA137">
         <v>1</v>
@@ -12921,10 +12921,10 @@
         <v>0</v>
       </c>
       <c r="Y138" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z138" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA138">
         <v>1</v>
@@ -13013,10 +13013,10 @@
         <v>1</v>
       </c>
       <c r="Y139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z139" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA139">
         <v>0</v>
@@ -13105,10 +13105,10 @@
         <v>1</v>
       </c>
       <c r="Y140" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z140" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA140">
         <v>0.38037647602246899</v>
@@ -13197,10 +13197,10 @@
         <v>1</v>
       </c>
       <c r="Y141" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z141" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA141">
         <v>0.40292193787954239</v>
@@ -13289,10 +13289,10 @@
         <v>1</v>
       </c>
       <c r="Y142" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z142" t="s">
         <v>34</v>
-      </c>
-      <c r="Z142" t="s">
-        <v>35</v>
       </c>
       <c r="AA142">
         <v>0</v>
@@ -13381,10 +13381,10 @@
         <v>1</v>
       </c>
       <c r="Y143" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z143" t="s">
         <v>34</v>
-      </c>
-      <c r="Z143" t="s">
-        <v>35</v>
       </c>
       <c r="AA143">
         <v>0</v>
@@ -13473,10 +13473,10 @@
         <v>0</v>
       </c>
       <c r="Y144" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z144" t="s">
         <v>34</v>
-      </c>
-      <c r="Z144" t="s">
-        <v>35</v>
       </c>
       <c r="AA144">
         <v>1</v>
@@ -13565,10 +13565,10 @@
         <v>1</v>
       </c>
       <c r="Y145" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z145" t="s">
         <v>34</v>
-      </c>
-      <c r="Z145" t="s">
-        <v>35</v>
       </c>
       <c r="AA145">
         <v>0</v>
@@ -13657,10 +13657,10 @@
         <v>1</v>
       </c>
       <c r="Y146" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z146" t="s">
         <v>34</v>
-      </c>
-      <c r="Z146" t="s">
-        <v>35</v>
       </c>
       <c r="AA146">
         <v>0</v>
@@ -13749,10 +13749,10 @@
         <v>1</v>
       </c>
       <c r="Y147" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z147" t="s">
         <v>34</v>
-      </c>
-      <c r="Z147" t="s">
-        <v>35</v>
       </c>
       <c r="AA147">
         <v>0</v>
@@ -13841,10 +13841,10 @@
         <v>1</v>
       </c>
       <c r="Y148" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z148" t="s">
         <v>34</v>
-      </c>
-      <c r="Z148" t="s">
-        <v>35</v>
       </c>
       <c r="AA148">
         <v>0</v>
@@ -13933,10 +13933,10 @@
         <v>0</v>
       </c>
       <c r="Y149" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z149" t="s">
         <v>34</v>
-      </c>
-      <c r="Z149" t="s">
-        <v>35</v>
       </c>
       <c r="AA149">
         <v>1</v>
@@ -14025,10 +14025,10 @@
         <v>1</v>
       </c>
       <c r="Y150" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z150" t="s">
         <v>34</v>
-      </c>
-      <c r="Z150" t="s">
-        <v>35</v>
       </c>
       <c r="AA150">
         <v>0</v>
@@ -14117,10 +14117,10 @@
         <v>1</v>
       </c>
       <c r="Y151" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z151" t="s">
         <v>34</v>
-      </c>
-      <c r="Z151" t="s">
-        <v>35</v>
       </c>
       <c r="AA151">
         <v>0</v>
@@ -14209,10 +14209,10 @@
         <v>1</v>
       </c>
       <c r="Y152" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z152" t="s">
         <v>34</v>
-      </c>
-      <c r="Z152" t="s">
-        <v>35</v>
       </c>
       <c r="AA152">
         <v>0</v>
@@ -14301,10 +14301,10 @@
         <v>0</v>
       </c>
       <c r="Y153" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z153" t="s">
         <v>34</v>
-      </c>
-      <c r="Z153" t="s">
-        <v>35</v>
       </c>
       <c r="AA153">
         <v>1</v>
@@ -14393,10 +14393,10 @@
         <v>1</v>
       </c>
       <c r="Y154" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z154" t="s">
         <v>34</v>
-      </c>
-      <c r="Z154" t="s">
-        <v>35</v>
       </c>
       <c r="AA154">
         <v>0</v>
@@ -14485,10 +14485,10 @@
         <v>0</v>
       </c>
       <c r="Y155" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z155" t="s">
         <v>34</v>
-      </c>
-      <c r="Z155" t="s">
-        <v>35</v>
       </c>
       <c r="AA155">
         <v>1</v>
@@ -14577,10 +14577,10 @@
         <v>1</v>
       </c>
       <c r="Y156" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z156" t="s">
         <v>34</v>
-      </c>
-      <c r="Z156" t="s">
-        <v>35</v>
       </c>
       <c r="AA156">
         <v>0</v>
@@ -14669,10 +14669,10 @@
         <v>1</v>
       </c>
       <c r="Y157" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z157" t="s">
         <v>34</v>
-      </c>
-      <c r="Z157" t="s">
-        <v>35</v>
       </c>
       <c r="AA157">
         <v>0</v>
@@ -14761,10 +14761,10 @@
         <v>1</v>
       </c>
       <c r="Y158" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z158" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA158">
         <v>0</v>
@@ -14853,10 +14853,10 @@
         <v>1</v>
       </c>
       <c r="Y159" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z159" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA159">
         <v>0</v>
@@ -14945,10 +14945,10 @@
         <v>1</v>
       </c>
       <c r="Y160" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z160" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA160">
         <v>0.32036632277096921</v>
@@ -15037,10 +15037,10 @@
         <v>1</v>
       </c>
       <c r="Y161" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z161" t="s">
         <v>34</v>
-      </c>
-      <c r="Z161" t="s">
-        <v>35</v>
       </c>
       <c r="AA161">
         <v>0</v>
@@ -15129,10 +15129,10 @@
         <v>1</v>
       </c>
       <c r="Y162" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z162" t="s">
         <v>34</v>
-      </c>
-      <c r="Z162" t="s">
-        <v>35</v>
       </c>
       <c r="AA162">
         <v>0</v>
@@ -15221,10 +15221,10 @@
         <v>1</v>
       </c>
       <c r="Y163" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z163" t="s">
         <v>34</v>
-      </c>
-      <c r="Z163" t="s">
-        <v>35</v>
       </c>
       <c r="AA163">
         <v>0</v>
@@ -15313,10 +15313,10 @@
         <v>1</v>
       </c>
       <c r="Y164" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z164" t="s">
         <v>34</v>
-      </c>
-      <c r="Z164" t="s">
-        <v>35</v>
       </c>
       <c r="AA164">
         <v>0</v>
@@ -15405,10 +15405,10 @@
         <v>1</v>
       </c>
       <c r="Y165" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z165" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA165">
         <v>0.3438899795784211</v>
@@ -15497,10 +15497,10 @@
         <v>0</v>
       </c>
       <c r="Y166" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z166" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA166">
         <v>1</v>
@@ -15589,10 +15589,10 @@
         <v>0</v>
       </c>
       <c r="Y167" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z167" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA167">
         <v>0.64740046748143243</v>
@@ -15681,10 +15681,10 @@
         <v>0</v>
       </c>
       <c r="Y168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z168" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA168">
         <v>1</v>
@@ -15773,10 +15773,10 @@
         <v>1</v>
       </c>
       <c r="Y169" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z169" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA169">
         <v>0</v>
@@ -15865,10 +15865,10 @@
         <v>1</v>
       </c>
       <c r="Y170" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z170" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA170">
         <v>0</v>
@@ -15957,10 +15957,10 @@
         <v>0</v>
       </c>
       <c r="Y171" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z171" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA171">
         <v>1</v>
@@ -16049,10 +16049,10 @@
         <v>0</v>
       </c>
       <c r="Y172" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z172" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA172">
         <v>0.53029650466808698</v>
@@ -16141,10 +16141,10 @@
         <v>0</v>
       </c>
       <c r="Y173" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z173" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA173">
         <v>1</v>
@@ -16233,10 +16233,10 @@
         <v>1</v>
       </c>
       <c r="Y174" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z174" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA174">
         <v>0.45828695613190168</v>
@@ -16325,10 +16325,10 @@
         <v>0</v>
       </c>
       <c r="Y175" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z175" t="s">
         <v>34</v>
-      </c>
-      <c r="Z175" t="s">
-        <v>35</v>
       </c>
       <c r="AA175">
         <v>1</v>
@@ -16417,10 +16417,10 @@
         <v>0</v>
       </c>
       <c r="Y176" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z176" t="s">
         <v>34</v>
-      </c>
-      <c r="Z176" t="s">
-        <v>35</v>
       </c>
       <c r="AA176">
         <v>1</v>
@@ -16509,10 +16509,10 @@
         <v>0</v>
       </c>
       <c r="Y177" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z177" t="s">
         <v>34</v>
-      </c>
-      <c r="Z177" t="s">
-        <v>35</v>
       </c>
       <c r="AA177">
         <v>1</v>
@@ -16601,10 +16601,10 @@
         <v>0</v>
       </c>
       <c r="Y178" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z178" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA178">
         <v>1</v>
@@ -16693,10 +16693,10 @@
         <v>0</v>
       </c>
       <c r="Y179" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z179" t="s">
         <v>34</v>
-      </c>
-      <c r="Z179" t="s">
-        <v>35</v>
       </c>
       <c r="AA179">
         <v>1</v>
@@ -16785,10 +16785,10 @@
         <v>0</v>
       </c>
       <c r="Y180" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z180" t="s">
         <v>34</v>
-      </c>
-      <c r="Z180" t="s">
-        <v>35</v>
       </c>
       <c r="AA180">
         <v>1</v>
@@ -16877,10 +16877,10 @@
         <v>0</v>
       </c>
       <c r="Y181" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z181" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA181">
         <v>0.51443482369487592</v>
@@ -16969,10 +16969,10 @@
         <v>1</v>
       </c>
       <c r="Y182" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z182" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA182">
         <v>0</v>
@@ -17061,10 +17061,10 @@
         <v>0</v>
       </c>
       <c r="Y183" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z183" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA183">
         <v>1</v>
@@ -17153,10 +17153,10 @@
         <v>0</v>
       </c>
       <c r="Y184" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z184" t="s">
         <v>29</v>
-      </c>
-      <c r="Z184" t="s">
-        <v>30</v>
       </c>
       <c r="AA184">
         <v>1</v>
@@ -17245,10 +17245,10 @@
         <v>0</v>
       </c>
       <c r="Y185" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z185" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA185">
         <v>1</v>
@@ -17337,10 +17337,10 @@
         <v>0</v>
       </c>
       <c r="Y186" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z186" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA186">
         <v>1</v>
@@ -17429,10 +17429,10 @@
         <v>0</v>
       </c>
       <c r="Y187" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z187" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA187">
         <v>0.58755665219201259</v>
@@ -17521,10 +17521,10 @@
         <v>1</v>
       </c>
       <c r="Y188" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z188" t="s">
         <v>34</v>
-      </c>
-      <c r="Z188" t="s">
-        <v>35</v>
       </c>
       <c r="AA188">
         <v>0</v>
@@ -17613,10 +17613,10 @@
         <v>0</v>
       </c>
       <c r="Y189" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z189" t="s">
         <v>34</v>
-      </c>
-      <c r="Z189" t="s">
-        <v>35</v>
       </c>
       <c r="AA189">
         <v>1</v>
@@ -17705,10 +17705,10 @@
         <v>0</v>
       </c>
       <c r="Y190" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z190" t="s">
         <v>34</v>
-      </c>
-      <c r="Z190" t="s">
-        <v>35</v>
       </c>
       <c r="AA190">
         <v>1</v>
@@ -17797,10 +17797,10 @@
         <v>0</v>
       </c>
       <c r="Y191" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z191" t="s">
         <v>34</v>
-      </c>
-      <c r="Z191" t="s">
-        <v>35</v>
       </c>
       <c r="AA191">
         <v>1</v>
@@ -17889,10 +17889,10 @@
         <v>1</v>
       </c>
       <c r="Y192" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z192" t="s">
         <v>34</v>
-      </c>
-      <c r="Z192" t="s">
-        <v>35</v>
       </c>
       <c r="AA192">
         <v>0</v>
@@ -17981,10 +17981,10 @@
         <v>1</v>
       </c>
       <c r="Y193" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z193" t="s">
         <v>34</v>
-      </c>
-      <c r="Z193" t="s">
-        <v>35</v>
       </c>
       <c r="AA193">
         <v>0</v>
@@ -18073,7 +18073,7 @@
         <v>0</v>
       </c>
       <c r="Y194" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA194">
         <v>0</v>
@@ -18159,7 +18159,7 @@
         <v>0</v>
       </c>
       <c r="Y195" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA195">
         <v>0</v>
@@ -18245,7 +18245,7 @@
         <v>0</v>
       </c>
       <c r="Y196" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA196">
         <v>0</v>
@@ -18331,7 +18331,7 @@
         <v>0</v>
       </c>
       <c r="Y197" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA197">
         <v>0</v>
@@ -18417,7 +18417,7 @@
         <v>0</v>
       </c>
       <c r="Y198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA198">
         <v>0</v>
@@ -18503,7 +18503,7 @@
         <v>0</v>
       </c>
       <c r="Y199" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA199">
         <v>0</v>
@@ -18589,7 +18589,7 @@
         <v>0</v>
       </c>
       <c r="Y200" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA200">
         <v>0</v>
@@ -18675,10 +18675,10 @@
         <v>1</v>
       </c>
       <c r="Y201" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z201" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA201">
         <v>0.42193608295101298</v>
@@ -18767,10 +18767,10 @@
         <v>0</v>
       </c>
       <c r="Y202" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z202" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA202">
         <v>0.5784606268464576</v>
@@ -18859,10 +18859,10 @@
         <v>0</v>
       </c>
       <c r="Y203" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z203" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA203">
         <v>0.65329343715499055</v>
@@ -18951,10 +18951,10 @@
         <v>0</v>
       </c>
       <c r="Y204" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z204" t="s">
         <v>34</v>
-      </c>
-      <c r="Z204" t="s">
-        <v>35</v>
       </c>
       <c r="AA204">
         <v>1</v>
@@ -19043,10 +19043,10 @@
         <v>0</v>
       </c>
       <c r="Y205" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z205" t="s">
         <v>34</v>
-      </c>
-      <c r="Z205" t="s">
-        <v>35</v>
       </c>
       <c r="AA205">
         <v>1</v>
@@ -19135,10 +19135,10 @@
         <v>1</v>
       </c>
       <c r="Y206" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z206" t="s">
         <v>34</v>
-      </c>
-      <c r="Z206" t="s">
-        <v>35</v>
       </c>
       <c r="AA206">
         <v>0</v>
@@ -19227,10 +19227,10 @@
         <v>0</v>
       </c>
       <c r="Y207" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z207" t="s">
         <v>34</v>
-      </c>
-      <c r="Z207" t="s">
-        <v>35</v>
       </c>
       <c r="AA207">
         <v>1</v>
@@ -19319,10 +19319,10 @@
         <v>1</v>
       </c>
       <c r="Y208" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z208" t="s">
         <v>34</v>
-      </c>
-      <c r="Z208" t="s">
-        <v>35</v>
       </c>
       <c r="AA208">
         <v>0</v>
@@ -19411,10 +19411,10 @@
         <v>1</v>
       </c>
       <c r="Y209" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z209" t="s">
         <v>34</v>
-      </c>
-      <c r="Z209" t="s">
-        <v>35</v>
       </c>
       <c r="AA209">
         <v>0</v>
@@ -19503,10 +19503,10 @@
         <v>1</v>
       </c>
       <c r="Y210" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z210" t="s">
         <v>34</v>
-      </c>
-      <c r="Z210" t="s">
-        <v>35</v>
       </c>
       <c r="AA210">
         <v>0</v>
@@ -19595,10 +19595,10 @@
         <v>1</v>
       </c>
       <c r="Y211" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z211" t="s">
         <v>34</v>
-      </c>
-      <c r="Z211" t="s">
-        <v>35</v>
       </c>
       <c r="AA211">
         <v>0</v>
@@ -19687,10 +19687,10 @@
         <v>0</v>
       </c>
       <c r="Y212" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z212" t="s">
         <v>34</v>
-      </c>
-      <c r="Z212" t="s">
-        <v>35</v>
       </c>
       <c r="AA212">
         <v>1</v>
@@ -19779,10 +19779,10 @@
         <v>1</v>
       </c>
       <c r="Y213" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z213" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA213">
         <v>0</v>
@@ -19871,10 +19871,10 @@
         <v>1</v>
       </c>
       <c r="Y214" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z214" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA214">
         <v>0</v>
@@ -19963,10 +19963,10 @@
         <v>1</v>
       </c>
       <c r="Y215" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z215" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA215">
         <v>0</v>
@@ -20055,10 +20055,10 @@
         <v>1</v>
       </c>
       <c r="Y216" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z216" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA216">
         <v>0.49126416348823981</v>
@@ -20147,10 +20147,10 @@
         <v>0</v>
       </c>
       <c r="Y217" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z217" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA217">
         <v>1</v>
@@ -20239,10 +20239,10 @@
         <v>1</v>
       </c>
       <c r="Y218" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z218" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA218">
         <v>0.48413215117252151</v>
@@ -20331,10 +20331,10 @@
         <v>0</v>
       </c>
       <c r="Y219" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z219" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA219">
         <v>1</v>
@@ -20423,10 +20423,10 @@
         <v>0</v>
       </c>
       <c r="Y220" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z220" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA220">
         <v>0.71295697256151058</v>
@@ -20515,10 +20515,10 @@
         <v>1</v>
       </c>
       <c r="Y221" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z221" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA221">
         <v>0</v>
@@ -20607,10 +20607,10 @@
         <v>1</v>
       </c>
       <c r="Y222" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z222" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA222">
         <v>0.38724792628578492</v>
@@ -20699,10 +20699,10 @@
         <v>0</v>
       </c>
       <c r="Y223" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z223" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA223">
         <v>0.63906127537351576</v>
@@ -20791,10 +20791,10 @@
         <v>0</v>
       </c>
       <c r="Y224" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z224" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA224">
         <v>0.58029484920284469</v>
@@ -20883,10 +20883,10 @@
         <v>1</v>
       </c>
       <c r="Y225" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z225" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA225">
         <v>0.44872003826713708</v>
@@ -20975,10 +20975,10 @@
         <v>0</v>
       </c>
       <c r="Y226" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z226" t="s">
         <v>34</v>
-      </c>
-      <c r="Z226" t="s">
-        <v>35</v>
       </c>
       <c r="AA226">
         <v>1</v>
@@ -21067,10 +21067,10 @@
         <v>0</v>
       </c>
       <c r="Y227" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z227" t="s">
         <v>34</v>
-      </c>
-      <c r="Z227" t="s">
-        <v>35</v>
       </c>
       <c r="AA227">
         <v>1</v>
@@ -21159,10 +21159,10 @@
         <v>0</v>
       </c>
       <c r="Y228" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z228" t="s">
         <v>34</v>
-      </c>
-      <c r="Z228" t="s">
-        <v>35</v>
       </c>
       <c r="AA228">
         <v>1</v>
@@ -21251,10 +21251,10 @@
         <v>1</v>
       </c>
       <c r="Y229" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z229" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA229">
         <v>0.49276096458224228</v>
@@ -21343,10 +21343,10 @@
         <v>1</v>
       </c>
       <c r="Y230" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z230" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA230">
         <v>0.4808254159648257</v>
@@ -21435,10 +21435,10 @@
         <v>1</v>
       </c>
       <c r="Y231" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z231" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA231">
         <v>0</v>
@@ -21527,10 +21527,10 @@
         <v>1</v>
       </c>
       <c r="Y232" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z232" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA232">
         <v>0.40273389948798349</v>
@@ -21619,10 +21619,10 @@
         <v>1</v>
       </c>
       <c r="Y233" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z233" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA233">
         <v>0</v>
@@ -21711,10 +21711,10 @@
         <v>1</v>
       </c>
       <c r="Y234" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z234" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA234">
         <v>0</v>
@@ -21803,10 +21803,10 @@
         <v>1</v>
       </c>
       <c r="Y235" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z235" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA235">
         <v>0.41457940095377838</v>
@@ -21895,10 +21895,10 @@
         <v>0</v>
       </c>
       <c r="Y236" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z236" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA236">
         <v>0.62698976060332134</v>
@@ -21987,10 +21987,10 @@
         <v>1</v>
       </c>
       <c r="Y237" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z237" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA237">
         <v>0.45437145088551079</v>
@@ -22079,10 +22079,10 @@
         <v>1</v>
       </c>
       <c r="Y238" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z238" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA238">
         <v>0.4824652022006653</v>
@@ -22171,10 +22171,10 @@
         <v>1</v>
       </c>
       <c r="Y239" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z239" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA239">
         <v>0</v>
@@ -22263,10 +22263,10 @@
         <v>1</v>
       </c>
       <c r="Y240" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z240" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA240">
         <v>0</v>
@@ -22355,10 +22355,10 @@
         <v>0</v>
       </c>
       <c r="Y241" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z241" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA241">
         <v>0.505212405054277</v>
@@ -22447,10 +22447,10 @@
         <v>0</v>
       </c>
       <c r="Y242" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z242" t="s">
         <v>31</v>
-      </c>
-      <c r="Z242" t="s">
-        <v>32</v>
       </c>
       <c r="AA242">
         <v>1</v>
@@ -22539,10 +22539,10 @@
         <v>0</v>
       </c>
       <c r="Y243" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z243" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA243">
         <v>1</v>
@@ -22631,10 +22631,10 @@
         <v>0</v>
       </c>
       <c r="Y244" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z244" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA244">
         <v>0.52074003415943526</v>
@@ -22723,10 +22723,10 @@
         <v>1</v>
       </c>
       <c r="Y245" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z245" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA245">
         <v>0</v>
@@ -22815,10 +22815,10 @@
         <v>1</v>
       </c>
       <c r="Y246" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z246" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA246">
         <v>0</v>
@@ -22907,10 +22907,10 @@
         <v>1</v>
       </c>
       <c r="Y247" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z247" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA247">
         <v>0</v>
@@ -22999,10 +22999,10 @@
         <v>0</v>
       </c>
       <c r="Y248" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z248" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA248">
         <v>1</v>
@@ -23091,10 +23091,10 @@
         <v>1</v>
       </c>
       <c r="Y249" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z249" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA249">
         <v>0.49335811508083249</v>
@@ -23183,10 +23183,10 @@
         <v>1</v>
       </c>
       <c r="Y250" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z250" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA250">
         <v>0.47551511877067731</v>
@@ -23275,10 +23275,10 @@
         <v>1</v>
       </c>
       <c r="Y251" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z251" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA251">
         <v>0</v>
@@ -23367,10 +23367,10 @@
         <v>1</v>
       </c>
       <c r="Y252" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z252" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA252">
         <v>0.41743453732999197</v>
@@ -23459,10 +23459,10 @@
         <v>1</v>
       </c>
       <c r="Y253" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z253" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA253">
         <v>0</v>
@@ -23551,10 +23551,10 @@
         <v>1</v>
       </c>
       <c r="Y254" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z254" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA254">
         <v>0</v>
@@ -23643,10 +23643,10 @@
         <v>1</v>
       </c>
       <c r="Y255" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z255" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA255">
         <v>0.49226785168749621</v>
@@ -23735,10 +23735,10 @@
         <v>0</v>
       </c>
       <c r="Y256" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z256" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA256">
         <v>1</v>
@@ -23827,10 +23827,10 @@
         <v>0</v>
       </c>
       <c r="Y257" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z257" t="s">
         <v>34</v>
-      </c>
-      <c r="Z257" t="s">
-        <v>35</v>
       </c>
       <c r="AA257">
         <v>1</v>
@@ -23919,10 +23919,10 @@
         <v>0</v>
       </c>
       <c r="Y258" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z258" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA258">
         <v>1</v>
@@ -24011,10 +24011,10 @@
         <v>0</v>
       </c>
       <c r="Y259" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z259" t="s">
         <v>34</v>
-      </c>
-      <c r="Z259" t="s">
-        <v>35</v>
       </c>
       <c r="AA259">
         <v>1</v>
@@ -24103,10 +24103,10 @@
         <v>0</v>
       </c>
       <c r="Y260" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z260" t="s">
         <v>34</v>
-      </c>
-      <c r="Z260" t="s">
-        <v>35</v>
       </c>
       <c r="AA260">
         <v>1</v>
@@ -24195,10 +24195,10 @@
         <v>0</v>
       </c>
       <c r="Y261" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z261" t="s">
         <v>34</v>
-      </c>
-      <c r="Z261" t="s">
-        <v>35</v>
       </c>
       <c r="AA261">
         <v>1</v>
@@ -24287,10 +24287,10 @@
         <v>1</v>
       </c>
       <c r="Y262" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z262" t="s">
         <v>34</v>
-      </c>
-      <c r="Z262" t="s">
-        <v>35</v>
       </c>
       <c r="AA262">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>1</v>
       </c>
       <c r="Y263" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z263" t="s">
         <v>34</v>
-      </c>
-      <c r="Z263" t="s">
-        <v>35</v>
       </c>
       <c r="AA263">
         <v>0</v>
@@ -24471,10 +24471,10 @@
         <v>1</v>
       </c>
       <c r="Y264" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z264" t="s">
         <v>34</v>
-      </c>
-      <c r="Z264" t="s">
-        <v>35</v>
       </c>
       <c r="AA264">
         <v>0</v>
@@ -24563,10 +24563,10 @@
         <v>0</v>
       </c>
       <c r="Y265" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z265" t="s">
         <v>34</v>
-      </c>
-      <c r="Z265" t="s">
-        <v>35</v>
       </c>
       <c r="AA265">
         <v>1</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="Y266" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z266" t="s">
         <v>34</v>
-      </c>
-      <c r="Z266" t="s">
-        <v>35</v>
       </c>
       <c r="AA266">
         <v>1</v>
@@ -24747,10 +24747,10 @@
         <v>0</v>
       </c>
       <c r="Y267" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z267" t="s">
         <v>34</v>
-      </c>
-      <c r="Z267" t="s">
-        <v>35</v>
       </c>
       <c r="AA267">
         <v>1</v>
@@ -24839,10 +24839,10 @@
         <v>0</v>
       </c>
       <c r="Y268" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z268" t="s">
         <v>34</v>
-      </c>
-      <c r="Z268" t="s">
-        <v>35</v>
       </c>
       <c r="AA268">
         <v>1</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="Y269" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z269" t="s">
         <v>34</v>
-      </c>
-      <c r="Z269" t="s">
-        <v>35</v>
       </c>
       <c r="AA269">
         <v>1</v>
@@ -25023,10 +25023,10 @@
         <v>0</v>
       </c>
       <c r="Y270" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z270" t="s">
         <v>34</v>
-      </c>
-      <c r="Z270" t="s">
-        <v>35</v>
       </c>
       <c r="AA270">
         <v>1</v>
@@ -25115,10 +25115,10 @@
         <v>0</v>
       </c>
       <c r="Y271" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z271" t="s">
         <v>34</v>
-      </c>
-      <c r="Z271" t="s">
-        <v>35</v>
       </c>
       <c r="AA271">
         <v>1</v>
@@ -25207,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="Y272" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z272" t="s">
         <v>34</v>
-      </c>
-      <c r="Z272" t="s">
-        <v>35</v>
       </c>
       <c r="AA272">
         <v>1</v>
@@ -25299,10 +25299,10 @@
         <v>0</v>
       </c>
       <c r="Y273" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z273" t="s">
         <v>34</v>
-      </c>
-      <c r="Z273" t="s">
-        <v>35</v>
       </c>
       <c r="AA273">
         <v>1</v>
@@ -25391,10 +25391,10 @@
         <v>0</v>
       </c>
       <c r="Y274" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z274" t="s">
         <v>34</v>
-      </c>
-      <c r="Z274" t="s">
-        <v>35</v>
       </c>
       <c r="AA274">
         <v>1</v>
@@ -25483,10 +25483,10 @@
         <v>0</v>
       </c>
       <c r="Y275" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z275" t="s">
         <v>34</v>
-      </c>
-      <c r="Z275" t="s">
-        <v>35</v>
       </c>
       <c r="AA275">
         <v>1</v>
@@ -25575,10 +25575,10 @@
         <v>0</v>
       </c>
       <c r="Y276" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z276" t="s">
         <v>34</v>
-      </c>
-      <c r="Z276" t="s">
-        <v>35</v>
       </c>
       <c r="AA276">
         <v>1</v>
@@ -25667,10 +25667,10 @@
         <v>0</v>
       </c>
       <c r="Y277" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z277" t="s">
         <v>34</v>
-      </c>
-      <c r="Z277" t="s">
-        <v>35</v>
       </c>
       <c r="AA277">
         <v>1</v>
@@ -25759,10 +25759,10 @@
         <v>1</v>
       </c>
       <c r="Y278" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z278" t="s">
         <v>34</v>
-      </c>
-      <c r="Z278" t="s">
-        <v>35</v>
       </c>
       <c r="AA278">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>1</v>
       </c>
       <c r="Y279" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z279" t="s">
         <v>34</v>
-      </c>
-      <c r="Z279" t="s">
-        <v>35</v>
       </c>
       <c r="AA279">
         <v>0</v>
@@ -25943,10 +25943,10 @@
         <v>1</v>
       </c>
       <c r="Y280" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z280" t="s">
         <v>34</v>
-      </c>
-      <c r="Z280" t="s">
-        <v>35</v>
       </c>
       <c r="AA280">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>1</v>
       </c>
       <c r="Y281" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z281" t="s">
         <v>34</v>
-      </c>
-      <c r="Z281" t="s">
-        <v>35</v>
       </c>
       <c r="AA281">
         <v>0</v>
@@ -26127,10 +26127,10 @@
         <v>1</v>
       </c>
       <c r="Y282" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z282" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA282">
         <v>0</v>
@@ -26219,10 +26219,10 @@
         <v>1</v>
       </c>
       <c r="Y283" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z283" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA283">
         <v>0.28579555052389738</v>
@@ -26311,10 +26311,10 @@
         <v>1</v>
       </c>
       <c r="Y284" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z284" t="s">
         <v>34</v>
-      </c>
-      <c r="Z284" t="s">
-        <v>35</v>
       </c>
       <c r="AA284">
         <v>0</v>
@@ -26403,10 +26403,10 @@
         <v>1</v>
       </c>
       <c r="Y285" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z285" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA285">
         <v>0</v>
@@ -26495,10 +26495,10 @@
         <v>0</v>
       </c>
       <c r="Y286" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z286" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA286">
         <v>0.73600944766466114</v>
@@ -26587,10 +26587,10 @@
         <v>0</v>
       </c>
       <c r="Y287" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z287" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA287">
         <v>1</v>
@@ -26679,10 +26679,10 @@
         <v>0</v>
       </c>
       <c r="Y288" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z288" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA288">
         <v>0.69498391951904859</v>
@@ -26771,10 +26771,10 @@
         <v>0</v>
       </c>
       <c r="Y289" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z289" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA289">
         <v>1</v>
@@ -26863,10 +26863,10 @@
         <v>1</v>
       </c>
       <c r="Y290" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z290" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA290">
         <v>0</v>
@@ -26955,10 +26955,10 @@
         <v>0</v>
       </c>
       <c r="Y291" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z291" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA291">
         <v>0.6854242391791795</v>
@@ -27047,10 +27047,10 @@
         <v>1</v>
       </c>
       <c r="Y292" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z292" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA292">
         <v>0</v>
@@ -27139,10 +27139,10 @@
         <v>0</v>
       </c>
       <c r="Y293" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z293" t="s">
         <v>29</v>
-      </c>
-      <c r="Z293" t="s">
-        <v>30</v>
       </c>
       <c r="AA293">
         <v>1</v>
@@ -27231,10 +27231,10 @@
         <v>0</v>
       </c>
       <c r="Y294" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z294" t="s">
         <v>29</v>
-      </c>
-      <c r="Z294" t="s">
-        <v>30</v>
       </c>
       <c r="AA294">
         <v>1</v>
@@ -27323,10 +27323,10 @@
         <v>0</v>
       </c>
       <c r="Y295" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z295" t="s">
         <v>29</v>
-      </c>
-      <c r="Z295" t="s">
-        <v>30</v>
       </c>
       <c r="AA295">
         <v>1</v>
@@ -27415,10 +27415,10 @@
         <v>1</v>
       </c>
       <c r="Y296" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z296" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA296">
         <v>0</v>
@@ -27507,10 +27507,10 @@
         <v>1</v>
       </c>
       <c r="Y297" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z297" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA297">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="Y298" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA298">
         <v>0</v>
@@ -27685,7 +27685,7 @@
         <v>0</v>
       </c>
       <c r="Y299" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA299">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         <v>0</v>
       </c>
       <c r="Y300" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA300">
         <v>0</v>
@@ -27857,10 +27857,10 @@
         <v>0</v>
       </c>
       <c r="Y301" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z301" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA301">
         <v>1</v>
@@ -27949,10 +27949,10 @@
         <v>1</v>
       </c>
       <c r="Y302" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z302" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA302">
         <v>0</v>
@@ -28041,10 +28041,10 @@
         <v>1</v>
       </c>
       <c r="Y303" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z303" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA303">
         <v>0</v>
@@ -28133,10 +28133,10 @@
         <v>1</v>
       </c>
       <c r="Y304" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z304" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA304">
         <v>0</v>
@@ -28225,10 +28225,10 @@
         <v>0</v>
       </c>
       <c r="Y305" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z305" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA305">
         <v>0.53155190821702825</v>
@@ -28317,10 +28317,10 @@
         <v>1</v>
       </c>
       <c r="Y306" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z306" t="s">
         <v>29</v>
-      </c>
-      <c r="Z306" t="s">
-        <v>30</v>
       </c>
       <c r="AA306">
         <v>0</v>
@@ -28409,10 +28409,10 @@
         <v>1</v>
       </c>
       <c r="Y307" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z307" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA307">
         <v>0</v>
@@ -28501,10 +28501,10 @@
         <v>0</v>
       </c>
       <c r="Y308" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z308" t="s">
         <v>31</v>
-      </c>
-      <c r="Z308" t="s">
-        <v>32</v>
       </c>
       <c r="AA308">
         <v>1</v>
@@ -28593,10 +28593,10 @@
         <v>0</v>
       </c>
       <c r="Y309" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z309" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA309">
         <v>0.51974992155183675</v>
@@ -28685,10 +28685,10 @@
         <v>1</v>
       </c>
       <c r="Y310" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z310" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA310">
         <v>0.46791464430243301</v>
@@ -28777,10 +28777,10 @@
         <v>1</v>
       </c>
       <c r="Y311" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z311" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA311">
         <v>0</v>
@@ -28869,10 +28869,10 @@
         <v>1</v>
       </c>
       <c r="Y312" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z312" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AA312">
         <v>0</v>
@@ -28961,10 +28961,10 @@
         <v>0</v>
       </c>
       <c r="Y313" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z313" t="s">
         <v>29</v>
-      </c>
-      <c r="Z313" t="s">
-        <v>30</v>
       </c>
       <c r="AA313">
         <v>1</v>
@@ -29053,10 +29053,10 @@
         <v>0</v>
       </c>
       <c r="Y314" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z314" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA314">
         <v>1</v>
@@ -29145,10 +29145,10 @@
         <v>1</v>
       </c>
       <c r="Y315" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z315" t="s">
         <v>29</v>
-      </c>
-      <c r="Z315" t="s">
-        <v>30</v>
       </c>
       <c r="AA315">
         <v>0</v>
@@ -29237,10 +29237,10 @@
         <v>0</v>
       </c>
       <c r="Y316" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z316" t="s">
         <v>29</v>
-      </c>
-      <c r="Z316" t="s">
-        <v>30</v>
       </c>
       <c r="AA316">
         <v>1</v>
@@ -29329,10 +29329,10 @@
         <v>0</v>
       </c>
       <c r="Y317" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z317" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA317">
         <v>1</v>
@@ -29421,10 +29421,10 @@
         <v>0</v>
       </c>
       <c r="Y318" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z318" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA318">
         <v>1</v>
@@ -29513,10 +29513,10 @@
         <v>1</v>
       </c>
       <c r="Y319" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z319" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA319">
         <v>0.47343355757696942</v>
@@ -29605,10 +29605,10 @@
         <v>1</v>
       </c>
       <c r="Y320" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z320" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA320">
         <v>0</v>
@@ -29697,10 +29697,10 @@
         <v>1</v>
       </c>
       <c r="Y321" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z321" t="s">
         <v>31</v>
-      </c>
-      <c r="Z321" t="s">
-        <v>32</v>
       </c>
       <c r="AA321">
         <v>0</v>
@@ -29789,10 +29789,10 @@
         <v>0</v>
       </c>
       <c r="Y322" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z322" t="s">
         <v>31</v>
-      </c>
-      <c r="Z322" t="s">
-        <v>32</v>
       </c>
       <c r="AA322">
         <v>0.51167895566899502</v>
@@ -29881,10 +29881,10 @@
         <v>1</v>
       </c>
       <c r="Y323" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z323" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA323">
         <v>0</v>
@@ -29973,10 +29973,10 @@
         <v>1</v>
       </c>
       <c r="Y324" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z324" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA324">
         <v>0</v>
@@ -30065,10 +30065,10 @@
         <v>0</v>
       </c>
       <c r="Y325" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z325" t="s">
         <v>31</v>
-      </c>
-      <c r="Z325" t="s">
-        <v>32</v>
       </c>
       <c r="AA325">
         <v>0.50552987716183573</v>
@@ -30157,10 +30157,10 @@
         <v>1</v>
       </c>
       <c r="Y326" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z326" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA326">
         <v>0.38235930547414632</v>
@@ -30249,10 +30249,10 @@
         <v>1</v>
       </c>
       <c r="Y327" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z327" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA327">
         <v>0</v>
@@ -30341,10 +30341,10 @@
         <v>0</v>
       </c>
       <c r="Y328" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z328" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AA328">
         <v>1</v>
@@ -30433,10 +30433,10 @@
         <v>1</v>
       </c>
       <c r="Y329" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z329" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA329">
         <v>0</v>
@@ -30525,10 +30525,10 @@
         <v>1</v>
       </c>
       <c r="Y330" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z330" t="s">
         <v>34</v>
-      </c>
-      <c r="Z330" t="s">
-        <v>35</v>
       </c>
       <c r="AA330">
         <v>0</v>
@@ -30617,10 +30617,10 @@
         <v>1</v>
       </c>
       <c r="Y331" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z331" t="s">
         <v>34</v>
-      </c>
-      <c r="Z331" t="s">
-        <v>35</v>
       </c>
       <c r="AA331">
         <v>0</v>
@@ -30709,10 +30709,10 @@
         <v>0</v>
       </c>
       <c r="Y332" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z332" t="s">
         <v>34</v>
-      </c>
-      <c r="Z332" t="s">
-        <v>35</v>
       </c>
       <c r="AA332">
         <v>1</v>
@@ -30801,10 +30801,10 @@
         <v>1</v>
       </c>
       <c r="Y333" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z333" t="s">
         <v>34</v>
-      </c>
-      <c r="Z333" t="s">
-        <v>35</v>
       </c>
       <c r="AA333">
         <v>0</v>
@@ -30893,7 +30893,7 @@
         <v>0</v>
       </c>
       <c r="Y334" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA334">
         <v>0</v>
@@ -30979,7 +30979,7 @@
         <v>0</v>
       </c>
       <c r="Y335" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA335">
         <v>0</v>
@@ -31065,10 +31065,10 @@
         <v>0</v>
       </c>
       <c r="Y336" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z336" t="s">
         <v>34</v>
-      </c>
-      <c r="Z336" t="s">
-        <v>35</v>
       </c>
       <c r="AA336">
         <v>1</v>
@@ -31157,10 +31157,10 @@
         <v>0</v>
       </c>
       <c r="Y337" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z337" t="s">
         <v>34</v>
-      </c>
-      <c r="Z337" t="s">
-        <v>35</v>
       </c>
       <c r="AA337">
         <v>1</v>
@@ -31249,7 +31249,7 @@
         <v>0</v>
       </c>
       <c r="Y338" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA338">
         <v>0</v>
@@ -31335,10 +31335,10 @@
         <v>0</v>
       </c>
       <c r="Y339" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z339" t="s">
         <v>34</v>
-      </c>
-      <c r="Z339" t="s">
-        <v>35</v>
       </c>
       <c r="AA339">
         <v>1</v>
@@ -31427,10 +31427,10 @@
         <v>0</v>
       </c>
       <c r="Y340" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z340" t="s">
         <v>34</v>
-      </c>
-      <c r="Z340" t="s">
-        <v>35</v>
       </c>
       <c r="AA340">
         <v>1</v>
@@ -31519,10 +31519,10 @@
         <v>0</v>
       </c>
       <c r="Y341" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z341" t="s">
         <v>34</v>
-      </c>
-      <c r="Z341" t="s">
-        <v>35</v>
       </c>
       <c r="AA341">
         <v>1</v>
@@ -31611,10 +31611,10 @@
         <v>0</v>
       </c>
       <c r="Y342" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z342" t="s">
         <v>34</v>
-      </c>
-      <c r="Z342" t="s">
-        <v>35</v>
       </c>
       <c r="AA342">
         <v>1</v>
@@ -31703,10 +31703,10 @@
         <v>0</v>
       </c>
       <c r="Y343" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z343" t="s">
         <v>34</v>
-      </c>
-      <c r="Z343" t="s">
-        <v>35</v>
       </c>
       <c r="AA343">
         <v>1</v>
@@ -31795,7 +31795,7 @@
         <v>0</v>
       </c>
       <c r="Y344" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA344">
         <v>0</v>
@@ -31881,10 +31881,10 @@
         <v>0</v>
       </c>
       <c r="Y345" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z345" t="s">
         <v>34</v>
-      </c>
-      <c r="Z345" t="s">
-        <v>35</v>
       </c>
       <c r="AA345">
         <v>1</v>
@@ -31973,10 +31973,10 @@
         <v>1</v>
       </c>
       <c r="Y346" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z346" t="s">
         <v>34</v>
-      </c>
-      <c r="Z346" t="s">
-        <v>35</v>
       </c>
       <c r="AA346">
         <v>0</v>
@@ -32065,7 +32065,7 @@
         <v>0</v>
       </c>
       <c r="Y347" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA347">
         <v>0</v>
@@ -32151,10 +32151,10 @@
         <v>1</v>
       </c>
       <c r="Y348" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z348" t="s">
         <v>34</v>
-      </c>
-      <c r="Z348" t="s">
-        <v>35</v>
       </c>
       <c r="AA348">
         <v>0</v>
@@ -32243,10 +32243,10 @@
         <v>0</v>
       </c>
       <c r="Y349" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z349" t="s">
         <v>34</v>
-      </c>
-      <c r="Z349" t="s">
-        <v>35</v>
       </c>
       <c r="AA349">
         <v>1</v>
@@ -32335,10 +32335,10 @@
         <v>0</v>
       </c>
       <c r="Y350" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z350" t="s">
         <v>34</v>
-      </c>
-      <c r="Z350" t="s">
-        <v>35</v>
       </c>
       <c r="AA350">
         <v>1</v>
@@ -32427,10 +32427,10 @@
         <v>1</v>
       </c>
       <c r="Y351" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z351" t="s">
         <v>34</v>
-      </c>
-      <c r="Z351" t="s">
-        <v>35</v>
       </c>
       <c r="AA351">
         <v>0</v>
@@ -32519,10 +32519,10 @@
         <v>0</v>
       </c>
       <c r="Y352" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z352" t="s">
         <v>34</v>
-      </c>
-      <c r="Z352" t="s">
-        <v>35</v>
       </c>
       <c r="AA352">
         <v>1</v>
@@ -32611,10 +32611,10 @@
         <v>1</v>
       </c>
       <c r="Y353" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z353" t="s">
         <v>34</v>
-      </c>
-      <c r="Z353" t="s">
-        <v>35</v>
       </c>
       <c r="AA353">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>0</v>
       </c>
       <c r="Y354" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA354">
         <v>0</v>
@@ -32789,7 +32789,7 @@
         <v>0</v>
       </c>
       <c r="Y355" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA355">
         <v>0</v>
@@ -32875,10 +32875,10 @@
         <v>0</v>
       </c>
       <c r="Y356" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z356" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA356">
         <v>0.52720830580895284</v>
@@ -32967,10 +32967,10 @@
         <v>1</v>
       </c>
       <c r="Y357" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z357" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA357">
         <v>0.40709487426514901</v>
@@ -33059,10 +33059,10 @@
         <v>1</v>
       </c>
       <c r="Y358" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z358" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA358">
         <v>0</v>
@@ -33151,10 +33151,10 @@
         <v>1</v>
       </c>
       <c r="Y359" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z359" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA359">
         <v>0</v>
@@ -33243,10 +33243,10 @@
         <v>1</v>
       </c>
       <c r="Y360" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z360" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA360">
         <v>0.41902570618573992</v>
@@ -33335,10 +33335,10 @@
         <v>1</v>
       </c>
       <c r="Y361" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z361" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA361">
         <v>0.40967971323170099</v>
@@ -33427,10 +33427,10 @@
         <v>1</v>
       </c>
       <c r="Y362" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z362" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA362">
         <v>0</v>
@@ -33519,10 +33519,10 @@
         <v>1</v>
       </c>
       <c r="Y363" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z363" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA363">
         <v>0</v>
@@ -33611,10 +33611,10 @@
         <v>1</v>
       </c>
       <c r="Y364" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z364" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA364">
         <v>0</v>
@@ -33703,10 +33703,10 @@
         <v>1</v>
       </c>
       <c r="Y365" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z365" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA365">
         <v>0.45845787029315938</v>
@@ -33795,10 +33795,10 @@
         <v>0</v>
       </c>
       <c r="Y366" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z366" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA366">
         <v>0.52440193354210674</v>
@@ -33887,10 +33887,10 @@
         <v>0</v>
       </c>
       <c r="Y367" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z367" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA367">
         <v>0.53254239905795642</v>
@@ -33979,10 +33979,10 @@
         <v>0</v>
       </c>
       <c r="Y368" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z368" t="s">
         <v>31</v>
-      </c>
-      <c r="Z368" t="s">
-        <v>32</v>
       </c>
       <c r="AA368">
         <v>1</v>
@@ -34071,10 +34071,10 @@
         <v>0</v>
       </c>
       <c r="Y369" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z369" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA369">
         <v>1</v>
@@ -34163,10 +34163,10 @@
         <v>0</v>
       </c>
       <c r="Y370" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z370" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA370">
         <v>0.58827935724186686</v>
@@ -34255,10 +34255,10 @@
         <v>0</v>
       </c>
       <c r="Y371" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z371" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA371">
         <v>1</v>
@@ -34347,10 +34347,10 @@
         <v>0</v>
       </c>
       <c r="Y372" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z372" t="s">
         <v>31</v>
-      </c>
-      <c r="Z372" t="s">
-        <v>32</v>
       </c>
       <c r="AA372">
         <v>0.51223251189588148</v>
@@ -34439,10 +34439,10 @@
         <v>1</v>
       </c>
       <c r="Y373" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z373" t="s">
         <v>29</v>
-      </c>
-      <c r="Z373" t="s">
-        <v>30</v>
       </c>
       <c r="AA373">
         <v>0</v>
@@ -34531,10 +34531,10 @@
         <v>0</v>
       </c>
       <c r="Y374" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z374" t="s">
         <v>29</v>
-      </c>
-      <c r="Z374" t="s">
-        <v>30</v>
       </c>
       <c r="AA374">
         <v>1</v>
@@ -34623,10 +34623,10 @@
         <v>1</v>
       </c>
       <c r="Y375" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z375" t="s">
         <v>29</v>
-      </c>
-      <c r="Z375" t="s">
-        <v>30</v>
       </c>
       <c r="AA375">
         <v>0</v>
@@ -34715,10 +34715,10 @@
         <v>1</v>
       </c>
       <c r="Y376" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z376" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA376">
         <v>0</v>
@@ -34807,10 +34807,10 @@
         <v>1</v>
       </c>
       <c r="Y377" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z377" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA377">
         <v>0</v>
@@ -34899,10 +34899,10 @@
         <v>1</v>
       </c>
       <c r="Y378" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z378" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA378">
         <v>0.45426599033503973</v>
@@ -34991,10 +34991,10 @@
         <v>1</v>
       </c>
       <c r="Y379" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z379" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA379">
         <v>0.45693387970983018</v>
@@ -35083,10 +35083,10 @@
         <v>0</v>
       </c>
       <c r="Y380" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z380" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA380">
         <v>0.60984911658103735</v>
@@ -35175,10 +35175,10 @@
         <v>1</v>
       </c>
       <c r="Y381" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z381" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA381">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="Y382" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z382" t="s">
         <v>29</v>
-      </c>
-      <c r="Z382" t="s">
-        <v>30</v>
       </c>
       <c r="AA382">
         <v>1</v>
@@ -35359,10 +35359,10 @@
         <v>0</v>
       </c>
       <c r="Y383" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z383" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA383">
         <v>0.61576490427463082</v>
@@ -35451,10 +35451,10 @@
         <v>0</v>
       </c>
       <c r="Y384" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z384" t="s">
         <v>29</v>
-      </c>
-      <c r="Z384" t="s">
-        <v>30</v>
       </c>
       <c r="AA384">
         <v>1</v>
@@ -35543,10 +35543,10 @@
         <v>1</v>
       </c>
       <c r="Y385" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z385" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA385">
         <v>0.44929288742077228</v>
@@ -35635,10 +35635,10 @@
         <v>1</v>
       </c>
       <c r="Y386" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z386" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA386">
         <v>0</v>
@@ -35727,10 +35727,10 @@
         <v>0</v>
       </c>
       <c r="Y387" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z387" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA387">
         <v>0.56226790464029108</v>
@@ -35819,10 +35819,10 @@
         <v>1</v>
       </c>
       <c r="Y388" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z388" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA388">
         <v>0</v>
@@ -35911,10 +35911,10 @@
         <v>1</v>
       </c>
       <c r="Y389" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z389" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA389">
         <v>0</v>
@@ -36003,10 +36003,10 @@
         <v>0</v>
       </c>
       <c r="Y390" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z390" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA390">
         <v>0.51850693479834109</v>
@@ -36095,10 +36095,10 @@
         <v>1</v>
       </c>
       <c r="Y391" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z391" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA391">
         <v>0</v>
@@ -36187,10 +36187,10 @@
         <v>0</v>
       </c>
       <c r="Y392" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z392" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA392">
         <v>1</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="Y393" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z393" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA393">
         <v>1</v>
@@ -36371,10 +36371,10 @@
         <v>0</v>
       </c>
       <c r="Y394" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z394" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA394">
         <v>1</v>
@@ -36463,10 +36463,10 @@
         <v>0</v>
       </c>
       <c r="Y395" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z395" t="s">
         <v>34</v>
-      </c>
-      <c r="Z395" t="s">
-        <v>35</v>
       </c>
       <c r="AA395">
         <v>1</v>
@@ -36555,10 +36555,10 @@
         <v>0</v>
       </c>
       <c r="Y396" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z396" t="s">
         <v>34</v>
-      </c>
-      <c r="Z396" t="s">
-        <v>35</v>
       </c>
       <c r="AA396">
         <v>1</v>
@@ -36647,10 +36647,10 @@
         <v>0</v>
       </c>
       <c r="Y397" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z397" t="s">
         <v>29</v>
-      </c>
-      <c r="Z397" t="s">
-        <v>30</v>
       </c>
       <c r="AA397">
         <v>1</v>
@@ -36739,7 +36739,7 @@
         <v>0</v>
       </c>
       <c r="Y398" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA398">
         <v>0</v>
@@ -36825,7 +36825,7 @@
         <v>0</v>
       </c>
       <c r="Y399" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA399">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>1</v>
       </c>
       <c r="Y400" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z400" t="s">
         <v>34</v>
-      </c>
-      <c r="Z400" t="s">
-        <v>35</v>
       </c>
       <c r="AA400">
         <v>0</v>
@@ -37003,10 +37003,10 @@
         <v>1</v>
       </c>
       <c r="Y401" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z401" t="s">
         <v>34</v>
-      </c>
-      <c r="Z401" t="s">
-        <v>35</v>
       </c>
       <c r="AA401">
         <v>0</v>
@@ -37095,10 +37095,10 @@
         <v>0</v>
       </c>
       <c r="Y402" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z402" t="s">
         <v>34</v>
-      </c>
-      <c r="Z402" t="s">
-        <v>35</v>
       </c>
       <c r="AA402">
         <v>1</v>
@@ -37187,10 +37187,10 @@
         <v>1</v>
       </c>
       <c r="Y403" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z403" t="s">
         <v>34</v>
-      </c>
-      <c r="Z403" t="s">
-        <v>35</v>
       </c>
       <c r="AA403">
         <v>0</v>
@@ -37279,10 +37279,10 @@
         <v>0</v>
       </c>
       <c r="Y404" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z404" t="s">
         <v>34</v>
-      </c>
-      <c r="Z404" t="s">
-        <v>35</v>
       </c>
       <c r="AA404">
         <v>1</v>
@@ -37371,7 +37371,7 @@
         <v>0</v>
       </c>
       <c r="Y405" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA405">
         <v>0</v>
@@ -37457,7 +37457,7 @@
         <v>0</v>
       </c>
       <c r="Y406" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA406">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>0</v>
       </c>
       <c r="Y407" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA407">
         <v>0</v>
@@ -37629,7 +37629,7 @@
         <v>0</v>
       </c>
       <c r="Y408" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA408">
         <v>0</v>
@@ -37715,7 +37715,7 @@
         <v>0</v>
       </c>
       <c r="Y409" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA409">
         <v>0</v>
@@ -37801,10 +37801,10 @@
         <v>1</v>
       </c>
       <c r="Y410" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z410" t="s">
         <v>34</v>
-      </c>
-      <c r="Z410" t="s">
-        <v>35</v>
       </c>
       <c r="AA410">
         <v>0</v>
@@ -37893,10 +37893,10 @@
         <v>1</v>
       </c>
       <c r="Y411" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z411" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA411">
         <v>0.47620546115535622</v>
@@ -37985,7 +37985,7 @@
         <v>0</v>
       </c>
       <c r="Y412" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA412">
         <v>0</v>
@@ -38071,10 +38071,10 @@
         <v>1</v>
       </c>
       <c r="Y413" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z413" t="s">
         <v>34</v>
-      </c>
-      <c r="Z413" t="s">
-        <v>35</v>
       </c>
       <c r="AA413">
         <v>0</v>
@@ -38163,10 +38163,10 @@
         <v>0</v>
       </c>
       <c r="Y414" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z414" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA414">
         <v>1</v>
@@ -38255,10 +38255,10 @@
         <v>0</v>
       </c>
       <c r="Y415" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z415" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA415">
         <v>0.51703218518741045</v>
@@ -38347,10 +38347,10 @@
         <v>0</v>
       </c>
       <c r="Y416" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z416" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA416">
         <v>1</v>
@@ -38439,10 +38439,10 @@
         <v>1</v>
       </c>
       <c r="Y417" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z417" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA417">
         <v>0</v>
@@ -38531,10 +38531,10 @@
         <v>1</v>
       </c>
       <c r="Y418" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z418" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA418">
         <v>0.49354125034842611</v>
@@ -38623,10 +38623,10 @@
         <v>1</v>
       </c>
       <c r="Y419" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z419" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA419">
         <v>0</v>
@@ -38715,10 +38715,10 @@
         <v>1</v>
       </c>
       <c r="Y420" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z420" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA420">
         <v>0</v>
@@ -38807,10 +38807,10 @@
         <v>0</v>
       </c>
       <c r="Y421" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z421" t="s">
         <v>29</v>
-      </c>
-      <c r="Z421" t="s">
-        <v>30</v>
       </c>
       <c r="AA421">
         <v>1</v>
@@ -38899,10 +38899,10 @@
         <v>1</v>
       </c>
       <c r="Y422" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z422" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA422">
         <v>0</v>
@@ -38991,10 +38991,10 @@
         <v>1</v>
       </c>
       <c r="Y423" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z423" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA423">
         <v>0</v>
@@ -39083,10 +39083,10 @@
         <v>1</v>
       </c>
       <c r="Y424" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z424" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA424">
         <v>0</v>
@@ -39175,10 +39175,10 @@
         <v>0</v>
       </c>
       <c r="Y425" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z425" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA425">
         <v>0.51635571119125179</v>
@@ -39267,10 +39267,10 @@
         <v>0</v>
       </c>
       <c r="Y426" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z426" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA426">
         <v>0.5694369559877428</v>
@@ -39359,10 +39359,10 @@
         <v>0</v>
       </c>
       <c r="Y427" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z427" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA427">
         <v>1</v>
@@ -39451,10 +39451,10 @@
         <v>0</v>
       </c>
       <c r="Y428" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z428" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA428">
         <v>1</v>
@@ -39543,10 +39543,10 @@
         <v>0</v>
       </c>
       <c r="Y429" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z429" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA429">
         <v>1</v>
@@ -39635,10 +39635,10 @@
         <v>0</v>
       </c>
       <c r="Y430" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z430" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA430">
         <v>1</v>
@@ -39727,10 +39727,10 @@
         <v>1</v>
       </c>
       <c r="Y431" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z431" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA431">
         <v>0</v>
@@ -39819,10 +39819,10 @@
         <v>0</v>
       </c>
       <c r="Y432" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z432" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA432">
         <v>0.65715046874578209</v>
@@ -39911,10 +39911,10 @@
         <v>1</v>
       </c>
       <c r="Y433" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z433" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA433">
         <v>0</v>
@@ -40003,10 +40003,10 @@
         <v>1</v>
       </c>
       <c r="Y434" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z434" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA434">
         <v>0</v>
@@ -40095,10 +40095,10 @@
         <v>1</v>
       </c>
       <c r="Y435" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z435" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA435">
         <v>0</v>
@@ -40187,10 +40187,10 @@
         <v>1</v>
       </c>
       <c r="Y436" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z436" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA436">
         <v>0</v>
@@ -40279,10 +40279,10 @@
         <v>1</v>
       </c>
       <c r="Y437" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z437" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA437">
         <v>0</v>
@@ -40371,10 +40371,10 @@
         <v>0</v>
       </c>
       <c r="Y438" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z438" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA438">
         <v>0.62307494195074997</v>
@@ -40463,10 +40463,10 @@
         <v>0</v>
       </c>
       <c r="Y439" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z439" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA439">
         <v>1</v>
@@ -40555,10 +40555,10 @@
         <v>1</v>
       </c>
       <c r="Y440" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z440" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA440">
         <v>0</v>
@@ -40647,10 +40647,10 @@
         <v>1</v>
       </c>
       <c r="Y441" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z441" t="s">
         <v>31</v>
-      </c>
-      <c r="Z441" t="s">
-        <v>32</v>
       </c>
       <c r="AA441">
         <v>0</v>
@@ -40739,10 +40739,10 @@
         <v>1</v>
       </c>
       <c r="Y442" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z442" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA442">
         <v>0</v>
@@ -40831,10 +40831,10 @@
         <v>1</v>
       </c>
       <c r="Y443" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z443" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA443">
         <v>0</v>
@@ -40923,10 +40923,10 @@
         <v>1</v>
       </c>
       <c r="Y444" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z444" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA444">
         <v>0</v>
@@ -41015,10 +41015,10 @@
         <v>1</v>
       </c>
       <c r="Y445" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z445" t="s">
         <v>29</v>
-      </c>
-      <c r="Z445" t="s">
-        <v>30</v>
       </c>
       <c r="AA445">
         <v>0</v>
@@ -41107,10 +41107,10 @@
         <v>0</v>
       </c>
       <c r="Y446" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z446" t="s">
         <v>29</v>
-      </c>
-      <c r="Z446" t="s">
-        <v>30</v>
       </c>
       <c r="AA446">
         <v>1</v>
@@ -41199,10 +41199,10 @@
         <v>1</v>
       </c>
       <c r="Y447" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z447" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA447">
         <v>0</v>
@@ -41291,10 +41291,10 @@
         <v>0</v>
       </c>
       <c r="Y448" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z448" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA448">
         <v>0.5000027721883904</v>
@@ -41383,10 +41383,10 @@
         <v>1</v>
       </c>
       <c r="Y449" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z449" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA449">
         <v>0</v>
@@ -41475,10 +41475,10 @@
         <v>1</v>
       </c>
       <c r="Y450" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z450" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA450">
         <v>0</v>
@@ -41567,10 +41567,10 @@
         <v>1</v>
       </c>
       <c r="Y451" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z451" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA451">
         <v>0.49999918645513419</v>
@@ -41659,10 +41659,10 @@
         <v>1</v>
       </c>
       <c r="Y452" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z452" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA452">
         <v>0.49999965678976682</v>
@@ -41751,10 +41751,10 @@
         <v>0</v>
       </c>
       <c r="Y453" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z453" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA453">
         <v>1</v>
@@ -41843,10 +41843,10 @@
         <v>0</v>
       </c>
       <c r="Y454" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z454" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA454">
         <v>1</v>
@@ -41935,10 +41935,10 @@
         <v>1</v>
       </c>
       <c r="Y455" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z455" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA455">
         <v>0.49999999193483191</v>
@@ -42027,10 +42027,10 @@
         <v>1</v>
       </c>
       <c r="Y456" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z456" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA456">
         <v>0.49999994251541868</v>
@@ -42119,10 +42119,10 @@
         <v>1</v>
       </c>
       <c r="Y457" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z457" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA457">
         <v>0.49999991962899448</v>
@@ -42211,10 +42211,10 @@
         <v>1</v>
       </c>
       <c r="Y458" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z458" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA458">
         <v>0.49999984494806482</v>
@@ -42303,10 +42303,10 @@
         <v>0</v>
       </c>
       <c r="Y459" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z459" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA459">
         <v>0.50000014826797323</v>
@@ -42395,10 +42395,10 @@
         <v>0</v>
       </c>
       <c r="Y460" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z460" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA460">
         <v>0.50000008373938232</v>
@@ -42487,10 +42487,10 @@
         <v>1</v>
       </c>
       <c r="Y461" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z461" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA461">
         <v>0</v>
@@ -42579,10 +42579,10 @@
         <v>0</v>
       </c>
       <c r="Y462" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z462" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA462">
         <v>0.50000002756741257</v>
@@ -42671,10 +42671,10 @@
         <v>1</v>
       </c>
       <c r="Y463" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z463" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA463">
         <v>0</v>
@@ -42763,10 +42763,10 @@
         <v>1</v>
       </c>
       <c r="Y464" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z464" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA464">
         <v>0</v>
@@ -42855,10 +42855,10 @@
         <v>1</v>
       </c>
       <c r="Y465" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z465" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA465">
         <v>0</v>
@@ -42947,10 +42947,10 @@
         <v>1</v>
       </c>
       <c r="Y466" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z466" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA466">
         <v>0</v>
@@ -43039,10 +43039,10 @@
         <v>0</v>
       </c>
       <c r="Y467" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z467" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA467">
         <v>0.50000002159457857</v>
@@ -43131,10 +43131,10 @@
         <v>1</v>
       </c>
       <c r="Y468" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z468" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA468">
         <v>0</v>
@@ -43223,10 +43223,10 @@
         <v>0</v>
       </c>
       <c r="Y469" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z469" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA469">
         <v>0.50000106001914069</v>
@@ -43315,10 +43315,10 @@
         <v>1</v>
       </c>
       <c r="Y470" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z470" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA470">
         <v>0</v>
@@ -43407,10 +43407,10 @@
         <v>0</v>
       </c>
       <c r="Y471" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z471" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA471">
         <v>0.500004695125016</v>
@@ -43499,10 +43499,10 @@
         <v>1</v>
       </c>
       <c r="Y472" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z472" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA472">
         <v>0</v>
@@ -43591,10 +43591,10 @@
         <v>0</v>
       </c>
       <c r="Y473" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z473" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA473">
         <v>1</v>
@@ -43683,10 +43683,10 @@
         <v>1</v>
       </c>
       <c r="Y474" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z474" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA474">
         <v>0</v>
@@ -43775,10 +43775,10 @@
         <v>1</v>
       </c>
       <c r="Y475" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z475" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA475">
         <v>0</v>
@@ -43867,10 +43867,10 @@
         <v>0</v>
       </c>
       <c r="Y476" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z476" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA476">
         <v>0.50300092098004745</v>
@@ -43959,10 +43959,10 @@
         <v>0</v>
       </c>
       <c r="Y477" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z477" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA477">
         <v>0.50182774168365574</v>
@@ -44051,10 +44051,10 @@
         <v>0</v>
       </c>
       <c r="Y478" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z478" t="s">
         <v>31</v>
-      </c>
-      <c r="Z478" t="s">
-        <v>32</v>
       </c>
       <c r="AA478">
         <v>1</v>
@@ -44143,10 +44143,10 @@
         <v>1</v>
       </c>
       <c r="Y479" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z479" t="s">
         <v>31</v>
-      </c>
-      <c r="Z479" t="s">
-        <v>32</v>
       </c>
       <c r="AA479">
         <v>0.49065674696911332</v>
@@ -44235,10 +44235,10 @@
         <v>0</v>
       </c>
       <c r="Y480" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z480" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA480">
         <v>0.53217833929555047</v>
@@ -44327,10 +44327,10 @@
         <v>1</v>
       </c>
       <c r="Y481" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z481" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AA481">
         <v>0</v>
@@ -44419,10 +44419,10 @@
         <v>1</v>
       </c>
       <c r="Y482" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z482" t="s">
         <v>29</v>
-      </c>
-      <c r="Z482" t="s">
-        <v>30</v>
       </c>
       <c r="AA482">
         <v>0</v>
@@ -44511,10 +44511,10 @@
         <v>1</v>
       </c>
       <c r="Y483" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z483" t="s">
         <v>29</v>
-      </c>
-      <c r="Z483" t="s">
-        <v>30</v>
       </c>
       <c r="AA483">
         <v>0</v>
@@ -44603,10 +44603,10 @@
         <v>0</v>
       </c>
       <c r="Y484" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z484" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA484">
         <v>0.63003742477428104</v>
@@ -44695,10 +44695,10 @@
         <v>1</v>
       </c>
       <c r="Y485" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z485" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA485">
         <v>0.3396749042457658</v>
@@ -44787,10 +44787,10 @@
         <v>0</v>
       </c>
       <c r="Y486" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z486" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA486">
         <v>1</v>
@@ -44879,10 +44879,10 @@
         <v>1</v>
       </c>
       <c r="Y487" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z487" t="s">
         <v>31</v>
-      </c>
-      <c r="Z487" t="s">
-        <v>32</v>
       </c>
       <c r="AA487">
         <v>0.49443028598456362</v>
@@ -44971,10 +44971,10 @@
         <v>1</v>
       </c>
       <c r="Y488" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z488" t="s">
         <v>31</v>
-      </c>
-      <c r="Z488" t="s">
-        <v>32</v>
       </c>
       <c r="AA488">
         <v>0</v>
@@ -45063,10 +45063,10 @@
         <v>0</v>
       </c>
       <c r="Y489" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z489" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA489">
         <v>1</v>
@@ -45155,10 +45155,10 @@
         <v>1</v>
       </c>
       <c r="Y490" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z490" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA490">
         <v>0</v>
@@ -45247,10 +45247,10 @@
         <v>1</v>
       </c>
       <c r="Y491" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z491" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA491">
         <v>0</v>
@@ -45339,10 +45339,10 @@
         <v>0</v>
       </c>
       <c r="Y492" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z492" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA492">
         <v>0.57340181659269218</v>
@@ -45431,10 +45431,10 @@
         <v>0</v>
       </c>
       <c r="Y493" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z493" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA493">
         <v>0.60549865163020244</v>
@@ -45523,10 +45523,10 @@
         <v>0</v>
       </c>
       <c r="Y494" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z494" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA494">
         <v>0.58445138321135781</v>
@@ -45615,10 +45615,10 @@
         <v>0</v>
       </c>
       <c r="Y495" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z495" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA495">
         <v>0.6425821701790152</v>
@@ -45707,10 +45707,10 @@
         <v>1</v>
       </c>
       <c r="Y496" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z496" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA496">
         <v>0.34219578660364092</v>
@@ -45799,10 +45799,10 @@
         <v>1</v>
       </c>
       <c r="Y497" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z497" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA497">
         <v>0.43552833418544279</v>
@@ -45891,10 +45891,10 @@
         <v>1</v>
       </c>
       <c r="Y498" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z498" t="s">
         <v>29</v>
-      </c>
-      <c r="Z498" t="s">
-        <v>30</v>
       </c>
       <c r="AA498">
         <v>0</v>
@@ -45983,10 +45983,10 @@
         <v>0</v>
       </c>
       <c r="Y499" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z499" t="s">
         <v>29</v>
-      </c>
-      <c r="Z499" t="s">
-        <v>30</v>
       </c>
       <c r="AA499">
         <v>1</v>
@@ -46075,10 +46075,10 @@
         <v>1</v>
       </c>
       <c r="Y500" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z500" t="s">
         <v>29</v>
-      </c>
-      <c r="Z500" t="s">
-        <v>30</v>
       </c>
       <c r="AA500">
         <v>0</v>
@@ -46167,10 +46167,10 @@
         <v>1</v>
       </c>
       <c r="Y501" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z501" t="s">
         <v>29</v>
-      </c>
-      <c r="Z501" t="s">
-        <v>30</v>
       </c>
       <c r="AA501">
         <v>0</v>
@@ -46259,10 +46259,10 @@
         <v>1</v>
       </c>
       <c r="Y502" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z502" t="s">
         <v>29</v>
-      </c>
-      <c r="Z502" t="s">
-        <v>30</v>
       </c>
       <c r="AA502">
         <v>0</v>
@@ -46351,10 +46351,10 @@
         <v>0</v>
       </c>
       <c r="Y503" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z503" t="s">
         <v>29</v>
-      </c>
-      <c r="Z503" t="s">
-        <v>30</v>
       </c>
       <c r="AA503">
         <v>1</v>
@@ -46443,10 +46443,10 @@
         <v>1</v>
       </c>
       <c r="Y504" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z504" t="s">
         <v>29</v>
-      </c>
-      <c r="Z504" t="s">
-        <v>30</v>
       </c>
       <c r="AA504">
         <v>0</v>
@@ -46535,10 +46535,10 @@
         <v>0</v>
       </c>
       <c r="Y505" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z505" t="s">
         <v>29</v>
-      </c>
-      <c r="Z505" t="s">
-        <v>30</v>
       </c>
       <c r="AA505">
         <v>1</v>
@@ -46627,10 +46627,10 @@
         <v>0</v>
       </c>
       <c r="Y506" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z506" t="s">
         <v>29</v>
-      </c>
-      <c r="Z506" t="s">
-        <v>30</v>
       </c>
       <c r="AA506">
         <v>1</v>
@@ -46719,10 +46719,10 @@
         <v>0</v>
       </c>
       <c r="Y507" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z507" t="s">
         <v>29</v>
-      </c>
-      <c r="Z507" t="s">
-        <v>30</v>
       </c>
       <c r="AA507">
         <v>1</v>
@@ -46811,10 +46811,10 @@
         <v>1</v>
       </c>
       <c r="Y508" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z508" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA508">
         <v>0.37357261421464288</v>
@@ -46903,10 +46903,10 @@
         <v>0</v>
       </c>
       <c r="Y509" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z509" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA509">
         <v>0.58248091300687255</v>
@@ -46995,10 +46995,10 @@
         <v>0</v>
       </c>
       <c r="Y510" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z510" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA510">
         <v>0.53877626179058979</v>
@@ -47087,10 +47087,10 @@
         <v>0</v>
       </c>
       <c r="Y511" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z511" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA511">
         <v>0.53336916832405667</v>
@@ -47179,10 +47179,10 @@
         <v>1</v>
       </c>
       <c r="Y512" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z512" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA512">
         <v>0</v>
@@ -47271,10 +47271,10 @@
         <v>1</v>
       </c>
       <c r="Y513" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z513" t="s">
         <v>29</v>
-      </c>
-      <c r="Z513" t="s">
-        <v>30</v>
       </c>
       <c r="AA513">
         <v>0</v>
@@ -47363,10 +47363,10 @@
         <v>1</v>
       </c>
       <c r="Y514" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z514" t="s">
         <v>29</v>
-      </c>
-      <c r="Z514" t="s">
-        <v>30</v>
       </c>
       <c r="AA514">
         <v>0</v>
@@ -47455,10 +47455,10 @@
         <v>0</v>
       </c>
       <c r="Y515" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z515" t="s">
         <v>29</v>
-      </c>
-      <c r="Z515" t="s">
-        <v>30</v>
       </c>
       <c r="AA515">
         <v>1</v>
@@ -47547,10 +47547,10 @@
         <v>1</v>
       </c>
       <c r="Y516" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z516" t="s">
         <v>29</v>
-      </c>
-      <c r="Z516" t="s">
-        <v>30</v>
       </c>
       <c r="AA516">
         <v>0</v>
@@ -47639,10 +47639,10 @@
         <v>0</v>
       </c>
       <c r="Y517" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z517" t="s">
         <v>29</v>
-      </c>
-      <c r="Z517" t="s">
-        <v>30</v>
       </c>
       <c r="AA517">
         <v>1</v>
@@ -47731,10 +47731,10 @@
         <v>0</v>
       </c>
       <c r="Y518" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z518" t="s">
         <v>29</v>
-      </c>
-      <c r="Z518" t="s">
-        <v>30</v>
       </c>
       <c r="AA518">
         <v>1</v>
@@ -47823,10 +47823,10 @@
         <v>0</v>
       </c>
       <c r="Y519" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z519" t="s">
         <v>29</v>
-      </c>
-      <c r="Z519" t="s">
-        <v>30</v>
       </c>
       <c r="AA519">
         <v>1</v>
@@ -47915,10 +47915,10 @@
         <v>0</v>
       </c>
       <c r="Y520" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z520" t="s">
         <v>29</v>
-      </c>
-      <c r="Z520" t="s">
-        <v>30</v>
       </c>
       <c r="AA520">
         <v>1</v>
@@ -48007,7 +48007,7 @@
         <v>0</v>
       </c>
       <c r="Y521" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA521">
         <v>0</v>
@@ -48093,7 +48093,7 @@
         <v>0</v>
       </c>
       <c r="Y522" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA522">
         <v>0</v>
@@ -48179,7 +48179,7 @@
         <v>0</v>
       </c>
       <c r="Y523" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA523">
         <v>0</v>
@@ -48265,7 +48265,7 @@
         <v>0</v>
       </c>
       <c r="Y524" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA524">
         <v>0</v>
@@ -48351,10 +48351,10 @@
         <v>0</v>
       </c>
       <c r="Y525" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z525" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA525">
         <v>1</v>
@@ -48443,10 +48443,10 @@
         <v>0</v>
       </c>
       <c r="Y526" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z526" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA526">
         <v>1</v>
@@ -48535,10 +48535,10 @@
         <v>1</v>
       </c>
       <c r="Y527" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z527" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA527">
         <v>0.4577168888591937</v>
@@ -48627,10 +48627,10 @@
         <v>0</v>
       </c>
       <c r="Y528" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z528" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA528">
         <v>1</v>
@@ -48719,10 +48719,10 @@
         <v>0</v>
       </c>
       <c r="Y529" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z529" t="s">
         <v>34</v>
-      </c>
-      <c r="Z529" t="s">
-        <v>35</v>
       </c>
       <c r="AA529">
         <v>1</v>
@@ -48811,10 +48811,10 @@
         <v>0</v>
       </c>
       <c r="Y530" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z530" t="s">
         <v>34</v>
-      </c>
-      <c r="Z530" t="s">
-        <v>35</v>
       </c>
       <c r="AA530">
         <v>1</v>
@@ -48903,10 +48903,10 @@
         <v>0</v>
       </c>
       <c r="Y531" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z531" t="s">
         <v>34</v>
-      </c>
-      <c r="Z531" t="s">
-        <v>35</v>
       </c>
       <c r="AA531">
         <v>1</v>
@@ -48995,10 +48995,10 @@
         <v>0</v>
       </c>
       <c r="Y532" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z532" t="s">
         <v>34</v>
-      </c>
-      <c r="Z532" t="s">
-        <v>35</v>
       </c>
       <c r="AA532">
         <v>1</v>
@@ -49087,10 +49087,10 @@
         <v>0</v>
       </c>
       <c r="Y533" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z533" t="s">
         <v>34</v>
-      </c>
-      <c r="Z533" t="s">
-        <v>35</v>
       </c>
       <c r="AA533">
         <v>1</v>
@@ -49179,10 +49179,10 @@
         <v>0</v>
       </c>
       <c r="Y534" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z534" t="s">
         <v>34</v>
-      </c>
-      <c r="Z534" t="s">
-        <v>35</v>
       </c>
       <c r="AA534">
         <v>1</v>
@@ -49271,10 +49271,10 @@
         <v>0</v>
       </c>
       <c r="Y535" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z535" t="s">
         <v>34</v>
-      </c>
-      <c r="Z535" t="s">
-        <v>35</v>
       </c>
       <c r="AA535">
         <v>1</v>
@@ -49363,10 +49363,10 @@
         <v>0</v>
       </c>
       <c r="Y536" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z536" t="s">
         <v>34</v>
-      </c>
-      <c r="Z536" t="s">
-        <v>35</v>
       </c>
       <c r="AA536">
         <v>1</v>
@@ -49455,10 +49455,10 @@
         <v>0</v>
       </c>
       <c r="Y537" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z537" t="s">
         <v>34</v>
-      </c>
-      <c r="Z537" t="s">
-        <v>35</v>
       </c>
       <c r="AA537">
         <v>1</v>
@@ -49547,10 +49547,10 @@
         <v>0</v>
       </c>
       <c r="Y538" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z538" t="s">
         <v>34</v>
-      </c>
-      <c r="Z538" t="s">
-        <v>35</v>
       </c>
       <c r="AA538">
         <v>1</v>
@@ -49639,10 +49639,10 @@
         <v>0</v>
       </c>
       <c r="Y539" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z539" t="s">
         <v>34</v>
-      </c>
-      <c r="Z539" t="s">
-        <v>35</v>
       </c>
       <c r="AA539">
         <v>1</v>
@@ -49731,10 +49731,10 @@
         <v>0</v>
       </c>
       <c r="Y540" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z540" t="s">
         <v>34</v>
-      </c>
-      <c r="Z540" t="s">
-        <v>35</v>
       </c>
       <c r="AA540">
         <v>1</v>
@@ -49823,7 +49823,7 @@
         <v>0</v>
       </c>
       <c r="Y541" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA541">
         <v>0</v>
@@ -49909,7 +49909,7 @@
         <v>0</v>
       </c>
       <c r="Y542" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA542">
         <v>0</v>
@@ -49995,7 +49995,7 @@
         <v>0</v>
       </c>
       <c r="Y543" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA543">
         <v>0</v>
@@ -50081,7 +50081,7 @@
         <v>0</v>
       </c>
       <c r="Y544" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA544">
         <v>0</v>
@@ -50167,7 +50167,7 @@
         <v>0</v>
       </c>
       <c r="Y545" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA545">
         <v>0</v>
@@ -50253,7 +50253,7 @@
         <v>0</v>
       </c>
       <c r="Y546" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA546">
         <v>0</v>
@@ -50339,7 +50339,7 @@
         <v>0</v>
       </c>
       <c r="Y547" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA547">
         <v>0</v>
@@ -50425,7 +50425,7 @@
         <v>0</v>
       </c>
       <c r="Y548" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA548">
         <v>0</v>
@@ -50505,7 +50505,7 @@
         <v>0</v>
       </c>
       <c r="Y549" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA549">
         <v>0</v>
@@ -50585,7 +50585,7 @@
         <v>0</v>
       </c>
       <c r="Y550" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA550">
         <v>0</v>
@@ -50665,7 +50665,7 @@
         <v>0</v>
       </c>
       <c r="Y551" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA551">
         <v>0</v>
@@ -50745,10 +50745,10 @@
         <v>1</v>
       </c>
       <c r="Y552" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z552" t="s">
         <v>29</v>
-      </c>
-      <c r="Z552" t="s">
-        <v>30</v>
       </c>
       <c r="AA552">
         <v>0</v>
@@ -50831,10 +50831,10 @@
         <v>1</v>
       </c>
       <c r="Y553" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z553" t="s">
         <v>29</v>
-      </c>
-      <c r="Z553" t="s">
-        <v>30</v>
       </c>
       <c r="AA553">
         <v>0</v>
@@ -50884,10 +50884,10 @@
         <v>1</v>
       </c>
       <c r="Y554" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z554" t="s">
         <v>29</v>
-      </c>
-      <c r="Z554" t="s">
-        <v>30</v>
       </c>
       <c r="AA554">
         <v>0</v>
